--- a/UrbanLeague/Payroll Allocation/Payroll Allocation.xlsx
+++ b/UrbanLeague/Payroll Allocation/Payroll Allocation.xlsx
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7450" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7450" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
     <sheet name="Jan 2020" sheetId="2" r:id="rId2"/>
+    <sheet name="Feb 2020" sheetId="3" r:id="rId3"/>
+    <sheet name="Mar 2020" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -107,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="353">
   <si>
     <t>041 Social Enter  Thriftworks</t>
   </si>
@@ -727,24 +729,6 @@
     <t>Private Pay</t>
   </si>
   <si>
-    <t>NUL</t>
-  </si>
-  <si>
-    <t>Prudential</t>
-  </si>
-  <si>
-    <t>City of Newark</t>
-  </si>
-  <si>
-    <t>City of Irvington</t>
-  </si>
-  <si>
-    <t>Capital One</t>
-  </si>
-  <si>
-    <t>Victoria Foundation</t>
-  </si>
-  <si>
     <t>Wrap</t>
   </si>
   <si>
@@ -784,9 +768,6 @@
     <t>GREEN, YOLANDA</t>
   </si>
   <si>
-    <t>650A06G</t>
-  </si>
-  <si>
     <t>BENNETT, PATRICIA A</t>
   </si>
   <si>
@@ -859,142 +840,334 @@
     <t>MORRIS, GWENDOLYN J</t>
   </si>
   <si>
+    <t>SERMON, PATRICIA</t>
+  </si>
+  <si>
+    <t>SHARIF, DARRIN S</t>
+  </si>
+  <si>
+    <t>SIMMONS, BERTRILLA RENEE</t>
+  </si>
+  <si>
+    <t>STEWART, ROBIN D</t>
+  </si>
+  <si>
+    <t>TYLER, PATRICIA</t>
+  </si>
+  <si>
+    <t>WARD, RICHARD G</t>
+  </si>
+  <si>
+    <t>WILLIAMS, KYNEISHA</t>
+  </si>
+  <si>
+    <t>WOODRIDGE, ROSALIND</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>111A Abbott Other</t>
+  </si>
+  <si>
+    <t>112.1 Toddlers</t>
+  </si>
+  <si>
+    <t>451 USJP Program</t>
+  </si>
+  <si>
+    <t>454 Pru - Workforce</t>
+  </si>
+  <si>
+    <t>467 WorkForceUA</t>
+  </si>
+  <si>
+    <t>111B Abbott Fees</t>
+  </si>
+  <si>
+    <t>452 PACE</t>
+  </si>
+  <si>
+    <t>502 ESG Housing Asst Program</t>
+  </si>
+  <si>
+    <t>525 CDBG - Housing</t>
+  </si>
+  <si>
+    <t>515 NUL HUD PARS</t>
+  </si>
+  <si>
+    <t>560 Capital 1 SaveUp</t>
+  </si>
+  <si>
+    <t>562 LISC FOC 2020</t>
+  </si>
+  <si>
+    <t>563 Pru - FOC</t>
+  </si>
+  <si>
+    <t>341 NRTC 2020</t>
+  </si>
+  <si>
+    <t>220 Coding</t>
+  </si>
+  <si>
+    <t>368 WF Neigh Revit</t>
+  </si>
+  <si>
+    <t>610 CEO</t>
+  </si>
+  <si>
+    <t>700 Fundraising</t>
+  </si>
+  <si>
+    <t>339 ULEC Opport Corp</t>
+  </si>
+  <si>
+    <t>Newark Public Schools (Abbott)</t>
+  </si>
+  <si>
+    <t>United Airlines, Inc.</t>
+  </si>
+  <si>
+    <t>State of NJ -PACE</t>
+  </si>
+  <si>
+    <t>LISC-HUD FOC</t>
+  </si>
+  <si>
+    <t>Wells Fargo Regional Foundation</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>334F FOC</t>
+  </si>
+  <si>
+    <t>111A06U</t>
+  </si>
+  <si>
+    <t>502A06T</t>
+  </si>
+  <si>
+    <t>600 Admin</t>
+  </si>
+  <si>
+    <t>334 NRTC 2018 Grant</t>
+  </si>
+  <si>
+    <t>CITI / NUL/PNC</t>
+  </si>
+  <si>
+    <t>The Prudential Foundation</t>
+  </si>
+  <si>
+    <t>City of Newark-Home</t>
+  </si>
+  <si>
+    <t>State of NJ NRTC - 2018</t>
+  </si>
+  <si>
+    <t>City of Irvington CDBG</t>
+  </si>
+  <si>
+    <t>Capital One 1</t>
+  </si>
+  <si>
+    <t>State of NJ NRTC - 2019</t>
+  </si>
+  <si>
+    <t>DCA- Coding Program</t>
+  </si>
+  <si>
+    <t>Victoria Hernandez</t>
+  </si>
+  <si>
+    <t>ULEC Opport Corp</t>
+  </si>
+  <si>
+    <t>111A06G</t>
+  </si>
+  <si>
+    <t>111A06S</t>
+  </si>
+  <si>
+    <t>339A06P</t>
+  </si>
+  <si>
+    <t>451</t>
+  </si>
+  <si>
+    <t>467</t>
+  </si>
+  <si>
+    <t>451A03Z</t>
+  </si>
+  <si>
+    <t>620A03Z</t>
+  </si>
+  <si>
+    <t>454</t>
+  </si>
+  <si>
     <t>630</t>
   </si>
   <si>
-    <t>SERMON, PATRICIA</t>
-  </si>
-  <si>
-    <t>SHARIF, DARRIN S</t>
-  </si>
-  <si>
-    <t>SIMMONS, BERTRILLA RENEE</t>
-  </si>
-  <si>
-    <t>STEWART, ROBIN D</t>
-  </si>
-  <si>
-    <t>TYLER, PATRICIA</t>
-  </si>
-  <si>
-    <t>WARD, RICHARD G</t>
-  </si>
-  <si>
-    <t>WILLIAMS, KYNEISHA</t>
-  </si>
-  <si>
-    <t>WOODRIDGE, ROSALIND</t>
-  </si>
-  <si>
-    <t>???</t>
-  </si>
-  <si>
-    <t>111A Abbott Other</t>
-  </si>
-  <si>
-    <t>112.1 Toddlers</t>
-  </si>
-  <si>
-    <t>451 USJP Program</t>
-  </si>
-  <si>
-    <t>454 Pru - Workforce</t>
-  </si>
-  <si>
-    <t>467 WorkForceUA</t>
-  </si>
-  <si>
-    <t>111B Abbott Fees</t>
-  </si>
-  <si>
-    <t>452 PACE</t>
-  </si>
-  <si>
-    <t>502 ESG Housing Asst Program</t>
-  </si>
-  <si>
-    <t>525 CDBG - Housing</t>
-  </si>
-  <si>
-    <t>515 NUL HUD PARS</t>
-  </si>
-  <si>
-    <t>560 Capital 1 SaveUp</t>
-  </si>
-  <si>
-    <t>562 LISC FOC 2020</t>
-  </si>
-  <si>
-    <t>563 Pru - FOC</t>
-  </si>
-  <si>
-    <t>341 NRTC 2020</t>
-  </si>
-  <si>
-    <t>220 Coding</t>
-  </si>
-  <si>
-    <t>368 WF Neigh Revit</t>
-  </si>
-  <si>
-    <t>610 CEO</t>
-  </si>
-  <si>
-    <t>700 Fundraising</t>
-  </si>
-  <si>
-    <t>339 ULEC Opport Corp</t>
-  </si>
-  <si>
-    <t>Newark Public Schools (Abbott)</t>
-  </si>
-  <si>
-    <t>United Airlines, Inc.</t>
-  </si>
-  <si>
-    <t>State of NJ -PACE</t>
-  </si>
-  <si>
-    <t>LISC-HUD FOC</t>
-  </si>
-  <si>
-    <t>Wells Fargo Regional Foundation</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>State of New Jersey NRTC</t>
-  </si>
-  <si>
-    <t>NRTC 2018</t>
-  </si>
-  <si>
-    <t>334F NRTC 2018 Grant</t>
-  </si>
-  <si>
-    <t>334F FOC</t>
-  </si>
-  <si>
-    <t>State of NJ 2018</t>
-  </si>
-  <si>
-    <t>339 Opportunity Corp</t>
-  </si>
-  <si>
-    <t>State of New Jersey NRTC 19</t>
-  </si>
-  <si>
-    <t>DCA-Coding Program</t>
-  </si>
-  <si>
-    <t>111A06U</t>
-  </si>
-  <si>
-    <t>502A06T</t>
-  </si>
-  <si>
-    <t>620A03Z</t>
+    <t>111BA009</t>
+  </si>
+  <si>
+    <t>111AA009</t>
+  </si>
+  <si>
+    <t>111A</t>
+  </si>
+  <si>
+    <t>7222h</t>
+  </si>
+  <si>
+    <t>7222g</t>
+  </si>
+  <si>
+    <t>7222c</t>
+  </si>
+  <si>
+    <t>7222TA</t>
+  </si>
+  <si>
+    <t>7222o</t>
+  </si>
+  <si>
+    <t>7224a</t>
+  </si>
+  <si>
+    <t>7222j</t>
+  </si>
+  <si>
+    <t>7221g</t>
+  </si>
+  <si>
+    <t>7221a</t>
+  </si>
+  <si>
+    <t>7222l</t>
+  </si>
+  <si>
+    <t>7222d</t>
+  </si>
+  <si>
+    <t>7222e</t>
+  </si>
+  <si>
+    <t>7223c</t>
+  </si>
+  <si>
+    <t>7221f</t>
+  </si>
+  <si>
+    <t>7221c</t>
+  </si>
+  <si>
+    <t>7221b</t>
+  </si>
+  <si>
+    <t>7222f</t>
+  </si>
+  <si>
+    <t>7221e</t>
+  </si>
+  <si>
+    <t>Abbott,Teacher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abbott,Security </t>
+  </si>
+  <si>
+    <t>Abbott, Admin,Custodian</t>
+  </si>
+  <si>
+    <t>Abbott, Admin,Teacher Assistant</t>
+  </si>
+  <si>
+    <t>Wrap,Wrap Worker</t>
+  </si>
+  <si>
+    <t>Abbott,Teacher Assistant</t>
+  </si>
+  <si>
+    <t>USJP,Site Coordinator</t>
+  </si>
+  <si>
+    <t>FOC,Program Coordinator</t>
+  </si>
+  <si>
+    <t>Abbott,Program Director</t>
+  </si>
+  <si>
+    <t>EHS/ Toddlers,Teacher</t>
+  </si>
+  <si>
+    <t>Admin,CEO</t>
+  </si>
+  <si>
+    <t>Workforce,VP - Workforce</t>
+  </si>
+  <si>
+    <t>Housing,Housing Coordinator</t>
+  </si>
+  <si>
+    <t>FOC,Financial Coach</t>
+  </si>
+  <si>
+    <t>United Airlines,Job Developer</t>
+  </si>
+  <si>
+    <t>USJP,Teacher</t>
+  </si>
+  <si>
+    <t>NRTC, Housing, PARS, ESG,Housing Coordinator</t>
+  </si>
+  <si>
+    <t>PACE,Program Coordinator</t>
+  </si>
+  <si>
+    <t>USJP,Payroll Coordinator</t>
+  </si>
+  <si>
+    <t>Neigh Revit,Community Organizer</t>
+  </si>
+  <si>
+    <t>Abbott,Family Worker</t>
+  </si>
+  <si>
+    <t>USJP,Program Director</t>
+  </si>
+  <si>
+    <t>Abbott,Floater</t>
+  </si>
+  <si>
+    <t>Opportunity Corp,Program Director</t>
+  </si>
+  <si>
+    <t>FOC, Housing, OICA, COO,COO</t>
+  </si>
+  <si>
+    <t>Admin, Coding, WF,CAO</t>
+  </si>
+  <si>
+    <t>Abbott,Food Worker</t>
+  </si>
+  <si>
+    <t>Admin,CFO</t>
+  </si>
+  <si>
+    <t>United Airlines, PACE June 30,Career Coach</t>
+  </si>
+  <si>
+    <t>7224C J</t>
+  </si>
+  <si>
+    <t>369</t>
   </si>
 </sst>
 </file>
@@ -1006,7 +1179,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1057,8 +1230,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1121,12 +1313,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1145,24 +1331,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDBDBDB"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDD7EE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE699"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8CBAD"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6E0B4"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1223,26 +1451,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1396,10 +1611,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -1429,26 +1644,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="15" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="15" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1464,38 +1659,8 @@
     <xf numFmtId="164" fontId="5" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="9" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1512,30 +1677,282 @@
     <xf numFmtId="164" fontId="5" fillId="9" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="11" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="14" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="13" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="16" fontId="9" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 5" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="33">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -8676,7 +9093,7 @@
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="E4:E110">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="32" priority="1" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8689,13 +9106,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH43"/>
+  <dimension ref="A1:AH47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="X4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="6" ySplit="3" topLeftCell="G25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D41" sqref="D41"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8711,7 +9128,7 @@
     <col min="33" max="16384" width="8.7265625" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="81" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="64"/>
       <c r="B1" s="64" t="s">
         <v>198</v>
@@ -8724,294 +9141,294 @@
         <v>196</v>
       </c>
       <c r="F1" s="70"/>
-      <c r="G1" s="89" t="s">
-        <v>279</v>
-      </c>
-      <c r="H1" s="89" t="s">
+      <c r="G1" s="86" t="s">
+        <v>271</v>
+      </c>
+      <c r="H1" s="86" t="s">
         <v>205</v>
       </c>
-      <c r="I1" s="89" t="s">
+      <c r="I1" s="86" t="s">
         <v>205</v>
       </c>
-      <c r="J1" s="89" t="s">
+      <c r="J1" s="86" t="s">
         <v>205</v>
       </c>
-      <c r="K1" s="91" t="s">
-        <v>206</v>
-      </c>
-      <c r="L1" s="87" t="s">
+      <c r="K1" s="86" t="s">
+        <v>282</v>
+      </c>
+      <c r="L1" s="86" t="s">
+        <v>272</v>
+      </c>
+      <c r="M1" s="86" t="s">
+        <v>283</v>
+      </c>
+      <c r="N1" s="86" t="s">
+        <v>273</v>
+      </c>
+      <c r="O1" s="86" t="s">
+        <v>284</v>
+      </c>
+      <c r="P1" s="86" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q1" s="86" t="s">
+        <v>285</v>
+      </c>
+      <c r="R1" s="86" t="s">
+        <v>286</v>
+      </c>
+      <c r="S1" s="86" t="s">
+        <v>282</v>
+      </c>
+      <c r="T1" s="86" t="s">
+        <v>287</v>
+      </c>
+      <c r="U1" s="86" t="s">
+        <v>274</v>
+      </c>
+      <c r="V1" s="86" t="s">
+        <v>283</v>
+      </c>
+      <c r="W1" s="86" t="s">
+        <v>285</v>
+      </c>
+      <c r="X1" s="86" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y1" s="86" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z1" s="86" t="s">
+        <v>275</v>
+      </c>
+      <c r="AA1" s="86" t="s">
+        <v>290</v>
+      </c>
+      <c r="AB1" s="86" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC1" s="86" t="s">
+        <v>205</v>
+      </c>
+      <c r="AD1" s="86" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE1" s="87" t="s">
+        <v>291</v>
+      </c>
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="72"/>
+      <c r="AH1" s="72"/>
+    </row>
+    <row r="2" spans="1:34" s="73" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81" t="s">
+        <v>214</v>
+      </c>
+      <c r="F2" s="82"/>
+      <c r="G2" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="86" t="s">
+        <v>252</v>
+      </c>
+      <c r="I2" s="86" t="s">
+        <v>257</v>
+      </c>
+      <c r="J2" s="86" t="s">
+        <v>253</v>
+      </c>
+      <c r="K2" s="86" t="s">
+        <v>254</v>
+      </c>
+      <c r="L2" s="86" t="s">
+        <v>256</v>
+      </c>
+      <c r="M2" s="86" t="s">
+        <v>255</v>
+      </c>
+      <c r="N2" s="86" t="s">
+        <v>258</v>
+      </c>
+      <c r="O2" s="86" t="s">
+        <v>259</v>
+      </c>
+      <c r="P2" s="86" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q2" s="86" t="s">
+        <v>265</v>
+      </c>
+      <c r="R2" s="86" t="s">
+        <v>260</v>
+      </c>
+      <c r="S2" s="86" t="s">
+        <v>261</v>
+      </c>
+      <c r="T2" s="86" t="s">
+        <v>262</v>
+      </c>
+      <c r="U2" s="86" t="s">
+        <v>263</v>
+      </c>
+      <c r="V2" s="86" t="s">
+        <v>264</v>
+      </c>
+      <c r="W2" s="86" t="s">
+        <v>277</v>
+      </c>
+      <c r="X2" s="86" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y2" s="86" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z2" s="86" t="s">
+        <v>267</v>
+      </c>
+      <c r="AA2" s="86" t="s">
+        <v>268</v>
+      </c>
+      <c r="AB2" s="86" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC2" s="86" t="s">
+        <v>269</v>
+      </c>
+      <c r="AD2" s="86" t="s">
+        <v>270</v>
+      </c>
+      <c r="AE2" s="86" t="s">
         <v>280</v>
       </c>
-      <c r="M1" s="93" t="s">
-        <v>207</v>
-      </c>
-      <c r="N1" s="94" t="s">
-        <v>281</v>
-      </c>
-      <c r="O1" s="94" t="s">
-        <v>208</v>
-      </c>
-      <c r="P1" s="93" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q1" s="79" t="s">
-        <v>285</v>
-      </c>
-      <c r="R1" s="79" t="s">
-        <v>209</v>
-      </c>
-      <c r="S1" s="79" t="s">
-        <v>206</v>
-      </c>
-      <c r="T1" s="79" t="s">
-        <v>210</v>
-      </c>
-      <c r="U1" s="78" t="s">
-        <v>282</v>
-      </c>
-      <c r="V1" s="79" t="s">
-        <v>207</v>
-      </c>
-      <c r="W1" s="105" t="s">
-        <v>289</v>
-      </c>
-      <c r="X1" s="79" t="s">
-        <v>291</v>
-      </c>
-      <c r="Y1" s="79" t="s">
-        <v>292</v>
-      </c>
-      <c r="Z1" s="78" t="s">
-        <v>283</v>
-      </c>
-      <c r="AA1" s="79" t="s">
-        <v>211</v>
-      </c>
-      <c r="AB1" s="79" t="s">
-        <v>205</v>
-      </c>
-      <c r="AC1" s="79" t="s">
-        <v>205</v>
-      </c>
-      <c r="AD1" s="79" t="s">
-        <v>205</v>
-      </c>
-      <c r="AE1" s="79" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF1" s="80"/>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="80"/>
-    </row>
-    <row r="2" spans="1:34" s="81" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="96"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="99" t="s">
-        <v>220</v>
-      </c>
-      <c r="F2" s="100"/>
-      <c r="G2" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="90" t="s">
-        <v>260</v>
-      </c>
-      <c r="I2" s="90" t="s">
-        <v>265</v>
-      </c>
-      <c r="J2" s="90" t="s">
-        <v>261</v>
-      </c>
-      <c r="K2" s="92" t="s">
-        <v>262</v>
-      </c>
-      <c r="L2" s="88" t="s">
-        <v>264</v>
-      </c>
-      <c r="M2" s="95" t="s">
-        <v>263</v>
-      </c>
-      <c r="N2" s="95" t="s">
-        <v>266</v>
-      </c>
-      <c r="O2" s="95" t="s">
-        <v>267</v>
-      </c>
-      <c r="P2" s="95" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q2" s="85" t="s">
-        <v>273</v>
-      </c>
-      <c r="R2" s="85" t="s">
-        <v>268</v>
-      </c>
-      <c r="S2" s="85" t="s">
-        <v>269</v>
-      </c>
-      <c r="T2" s="85" t="s">
-        <v>270</v>
-      </c>
-      <c r="U2" s="85" t="s">
-        <v>271</v>
-      </c>
-      <c r="V2" s="85" t="s">
-        <v>272</v>
-      </c>
-      <c r="W2" s="106" t="s">
-        <v>288</v>
-      </c>
-      <c r="X2" s="101" t="s">
-        <v>290</v>
-      </c>
-      <c r="Y2" s="85" t="s">
-        <v>274</v>
-      </c>
-      <c r="Z2" s="85" t="s">
-        <v>275</v>
-      </c>
-      <c r="AA2" s="85" t="s">
-        <v>276</v>
-      </c>
-      <c r="AB2" s="85" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC2" s="85" t="s">
-        <v>277</v>
-      </c>
-      <c r="AD2" s="85" t="s">
-        <v>278</v>
-      </c>
-      <c r="AE2" s="85" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" s="103" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="82" t="s">
+    </row>
+    <row r="3" spans="1:34" s="84" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="74" t="s">
         <v>192</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="75" t="s">
         <v>193</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="77" t="s">
         <v>201</v>
       </c>
       <c r="E3" s="67">
-        <f>SUM(E4:E121)</f>
-        <v>37</v>
-      </c>
-      <c r="F3" s="86" t="s">
-        <v>221</v>
-      </c>
-      <c r="G3" s="102">
-        <f t="shared" ref="G3:AD3" si="0">SUM(G4:G43)</f>
-        <v>12.719999999999999</v>
-      </c>
-      <c r="H3" s="102">
+        <f>SUM(E4:E125)</f>
+        <v>44</v>
+      </c>
+      <c r="F3" s="77" t="s">
+        <v>215</v>
+      </c>
+      <c r="G3" s="83">
+        <f t="shared" ref="G3:AE3" si="0">SUM(G4:G47)</f>
+        <v>13.719999999999999</v>
+      </c>
+      <c r="H3" s="83">
         <f t="shared" si="0"/>
         <v>0.28000000000000003</v>
       </c>
-      <c r="I3" s="102">
+      <c r="I3" s="83">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J3" s="102">
+      <c r="J3" s="83">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K3" s="102">
+      <c r="K3" s="83">
         <f t="shared" si="0"/>
-        <v>5.15</v>
-      </c>
-      <c r="L3" s="102">
+        <v>6.5000000000000009</v>
+      </c>
+      <c r="L3" s="83">
         <f t="shared" si="0"/>
         <v>1.33</v>
       </c>
-      <c r="M3" s="102">
+      <c r="M3" s="83">
         <f t="shared" si="0"/>
-        <v>0.91</v>
-      </c>
-      <c r="N3" s="102">
+        <v>1.39</v>
+      </c>
+      <c r="N3" s="83">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="O3" s="102">
+      <c r="O3" s="83">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="P3" s="102">
+      <c r="P3" s="83">
         <f t="shared" si="0"/>
         <v>0.18</v>
       </c>
-      <c r="Q3" s="102">
+      <c r="Q3" s="83">
         <f t="shared" si="0"/>
-        <v>0.8600000000000001</v>
-      </c>
-      <c r="R3" s="102">
+        <v>0.96000000000000019</v>
+      </c>
+      <c r="R3" s="83">
         <f t="shared" si="0"/>
-        <v>0.39999999999999997</v>
-      </c>
-      <c r="S3" s="102">
+        <v>0.47999999999999993</v>
+      </c>
+      <c r="S3" s="83">
+        <f t="shared" si="0"/>
+        <v>0.31000000000000005</v>
+      </c>
+      <c r="T3" s="83">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="U3" s="83">
+        <f t="shared" si="0"/>
+        <v>1.62</v>
+      </c>
+      <c r="V3" s="83">
+        <f t="shared" si="0"/>
+        <v>1.18</v>
+      </c>
+      <c r="W3" s="83">
         <f t="shared" si="0"/>
         <v>0.27</v>
       </c>
-      <c r="T3" s="102">
-        <f t="shared" si="0"/>
-        <v>0.16</v>
-      </c>
-      <c r="U3" s="102">
-        <f t="shared" si="0"/>
-        <v>0.84000000000000008</v>
-      </c>
-      <c r="V3" s="102">
-        <f t="shared" si="0"/>
-        <v>1.18</v>
-      </c>
-      <c r="W3" s="102">
-        <f t="shared" si="0"/>
-        <v>0.27</v>
-      </c>
-      <c r="X3" s="102">
+      <c r="X3" s="83">
         <f t="shared" si="0"/>
         <v>0.58000000000000007</v>
       </c>
-      <c r="Y3" s="102">
+      <c r="Y3" s="83">
         <f t="shared" si="0"/>
         <v>0.7599999999999999</v>
       </c>
-      <c r="Z3" s="102">
+      <c r="Z3" s="83">
+        <f t="shared" si="0"/>
+        <v>2.88</v>
+      </c>
+      <c r="AA3" s="83">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="AB3" s="83">
         <f t="shared" si="0"/>
         <v>1.88</v>
       </c>
-      <c r="AA3" s="102">
-        <f t="shared" si="0"/>
-        <v>0.9</v>
-      </c>
-      <c r="AB3" s="102">
-        <f t="shared" si="0"/>
-        <v>1.83</v>
-      </c>
-      <c r="AC3" s="102">
+      <c r="AC3" s="83">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="AD3" s="102">
+      <c r="AD3" s="83">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AE3" s="102">
-        <f>SUM(AE4:AE43)</f>
+      <c r="AE3" s="83">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A4" s="104" t="s">
-        <v>284</v>
+      <c r="A4" s="85" t="s">
+        <v>276</v>
       </c>
       <c r="B4" s="51" t="s">
         <v>40</v>
@@ -9023,7 +9440,7 @@
         <v>202</v>
       </c>
       <c r="E4" s="53">
-        <f t="shared" ref="E4:E43" si="1">SUM(G4:BM4)</f>
+        <f t="shared" ref="E4:E47" si="1">SUM(G4:BM4)</f>
         <v>1</v>
       </c>
       <c r="F4" s="71">
@@ -9064,7 +9481,7 @@
         <v>34</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C5" s="68" t="s">
         <v>40</v>
@@ -9111,13 +9528,13 @@
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A6" s="51" t="s">
-        <v>225</v>
+        <v>292</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C6" s="68" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D6" s="68" t="s">
         <v>202</v>
@@ -9127,7 +9544,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="71">
-        <f t="shared" ref="F6:F43" si="2">COUNTIF(G6:AE6,"&gt;0")</f>
+        <f t="shared" ref="F6:F47" si="2">COUNTIF(G6:AE6,"&gt;0")</f>
         <v>1</v>
       </c>
       <c r="G6" s="49">
@@ -9160,16 +9577,16 @@
       <c r="AF6" s="54"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A7" s="72" t="s">
-        <v>293</v>
-      </c>
-      <c r="B7" s="73" t="s">
-        <v>214</v>
-      </c>
-      <c r="C7" s="73" t="s">
-        <v>213</v>
-      </c>
-      <c r="D7" s="73" t="s">
+      <c r="A7" s="88" t="s">
+        <v>278</v>
+      </c>
+      <c r="B7" s="68" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>207</v>
+      </c>
+      <c r="D7" s="68" t="s">
         <v>202</v>
       </c>
       <c r="E7" s="53">
@@ -9210,14 +9627,14 @@
       <c r="AF7" s="54"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="51" t="s">
-        <v>227</v>
+      <c r="B8" s="89" t="s">
+        <v>220</v>
       </c>
       <c r="C8" s="68" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D8" s="68" t="s">
         <v>202</v>
@@ -9260,11 +9677,11 @@
       <c r="AF8" s="54"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="51" t="s">
-        <v>228</v>
+      <c r="B9" s="89" t="s">
+        <v>221</v>
       </c>
       <c r="C9" s="68" t="s">
         <v>40</v>
@@ -9310,11 +9727,11 @@
       <c r="AF9" s="54"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="51" t="s">
-        <v>229</v>
+      <c r="B10" s="89" t="s">
+        <v>222</v>
       </c>
       <c r="C10" s="68" t="s">
         <v>43</v>
@@ -9360,11 +9777,11 @@
       <c r="AF10" s="54"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="51" t="s">
-        <v>230</v>
+      <c r="B11" s="89" t="s">
+        <v>223</v>
       </c>
       <c r="C11" s="68" t="s">
         <v>101</v>
@@ -9410,11 +9827,11 @@
       <c r="AF11" s="54"/>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="51" t="s">
-        <v>231</v>
+      <c r="B12" s="89" t="s">
+        <v>224</v>
       </c>
       <c r="C12" s="68" t="s">
         <v>40</v>
@@ -9462,11 +9879,11 @@
       <c r="AF12" s="54"/>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="51" t="s">
-        <v>232</v>
+      <c r="B13" s="89" t="s">
+        <v>225</v>
       </c>
       <c r="C13" s="68" t="s">
         <v>83</v>
@@ -9512,11 +9929,11 @@
       <c r="AF13" s="54"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="89" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="51" t="s">
-        <v>233</v>
+      <c r="B14" s="89" t="s">
+        <v>226</v>
       </c>
       <c r="C14" s="68" t="s">
         <v>88</v>
@@ -9564,11 +9981,11 @@
       <c r="AF14" s="54"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="89" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="51" t="s">
-        <v>234</v>
+      <c r="B15" s="89" t="s">
+        <v>227</v>
       </c>
       <c r="C15" s="68" t="s">
         <v>90</v>
@@ -9616,11 +10033,11 @@
       <c r="AF15" s="54"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A16" s="51" t="s">
-        <v>223</v>
-      </c>
-      <c r="B16" s="51" t="s">
-        <v>224</v>
+      <c r="A16" s="89" t="s">
+        <v>217</v>
+      </c>
+      <c r="B16" s="89" t="s">
+        <v>218</v>
       </c>
       <c r="C16" s="68" t="s">
         <v>83</v>
@@ -9666,16 +10083,16 @@
       <c r="AF16" s="54"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A17" s="72" t="s">
-        <v>294</v>
-      </c>
-      <c r="B17" s="73" t="s">
-        <v>215</v>
-      </c>
-      <c r="C17" s="73" t="s">
-        <v>216</v>
-      </c>
-      <c r="D17" s="73" t="s">
+      <c r="A17" s="88" t="s">
+        <v>279</v>
+      </c>
+      <c r="B17" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="68" t="s">
+        <v>210</v>
+      </c>
+      <c r="D17" s="68" t="s">
         <v>202</v>
       </c>
       <c r="E17" s="53">
@@ -9720,11 +10137,11 @@
       <c r="AF17" s="54"/>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A18" s="51" t="s">
-        <v>235</v>
-      </c>
-      <c r="B18" s="51" t="s">
-        <v>236</v>
+      <c r="A18" s="89" t="s">
+        <v>228</v>
+      </c>
+      <c r="B18" s="89" t="s">
+        <v>229</v>
       </c>
       <c r="C18" s="68" t="s">
         <v>101</v>
@@ -9776,11 +10193,11 @@
       <c r="AF18" s="54"/>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A19" s="51" t="s">
+      <c r="A19" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="51" t="s">
-        <v>237</v>
+      <c r="B19" s="89" t="s">
+        <v>230</v>
       </c>
       <c r="C19" s="68" t="s">
         <v>40</v>
@@ -9826,11 +10243,11 @@
       <c r="AF19" s="54"/>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="51" t="s">
-        <v>238</v>
+      <c r="B20" s="89" t="s">
+        <v>231</v>
       </c>
       <c r="C20" s="68" t="s">
         <v>180</v>
@@ -9876,11 +10293,11 @@
       <c r="AF20" s="54"/>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A21" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="B21" s="51" t="s">
-        <v>240</v>
+      <c r="A21" s="89" t="s">
+        <v>232</v>
+      </c>
+      <c r="B21" s="89" t="s">
+        <v>233</v>
       </c>
       <c r="C21" s="68" t="s">
         <v>43</v>
@@ -9926,19 +10343,27 @@
       <c r="AF21" s="54"/>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A22" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="B22" s="51" t="s">
-        <v>244</v>
+      <c r="A22" s="89" t="s">
+        <v>236</v>
+      </c>
+      <c r="B22" s="89" t="s">
+        <v>237</v>
       </c>
       <c r="C22" s="68"/>
       <c r="D22" s="68" t="s">
         <v>202</v>
       </c>
-      <c r="E22" s="53"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="49"/>
+      <c r="E22" s="53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F22" s="71">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G22" s="49">
+        <v>1</v>
+      </c>
       <c r="H22" s="49"/>
       <c r="I22" s="49"/>
       <c r="J22" s="49"/>
@@ -9966,11 +10391,11 @@
       <c r="AF22" s="54"/>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="89" t="s">
         <v>74</v>
       </c>
-      <c r="B23" s="51" t="s">
-        <v>241</v>
+      <c r="B23" s="89" t="s">
+        <v>234</v>
       </c>
       <c r="C23" s="68" t="s">
         <v>43</v>
@@ -10016,11 +10441,11 @@
       <c r="AF23" s="54"/>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="51" t="s">
-        <v>242</v>
+      <c r="B24" s="89" t="s">
+        <v>235</v>
       </c>
       <c r="C24" s="68" t="s">
         <v>162</v>
@@ -10074,10 +10499,10 @@
       <c r="AF24" s="54"/>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A25" s="51" t="s">
-        <v>245</v>
-      </c>
-      <c r="B25" s="51" t="s">
+      <c r="A25" s="89" t="s">
+        <v>238</v>
+      </c>
+      <c r="B25" s="89" t="s">
         <v>123</v>
       </c>
       <c r="C25" s="68" t="s">
@@ -10124,11 +10549,11 @@
       <c r="AF25" s="54"/>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A26" s="51" t="s">
-        <v>246</v>
-      </c>
-      <c r="B26" s="51" t="s">
-        <v>247</v>
+      <c r="A26" s="89" t="s">
+        <v>239</v>
+      </c>
+      <c r="B26" s="89" t="s">
+        <v>240</v>
       </c>
       <c r="C26" s="68" t="s">
         <v>188</v>
@@ -10174,16 +10599,16 @@
       <c r="AF26" s="54"/>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A27" s="72" t="s">
-        <v>295</v>
-      </c>
-      <c r="B27" s="73" t="s">
+      <c r="A27" s="51" t="s">
+        <v>297</v>
+      </c>
+      <c r="B27" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="73" t="s">
+      <c r="C27" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="73" t="s">
+      <c r="D27" s="68" t="s">
         <v>202</v>
       </c>
       <c r="E27" s="53">
@@ -10227,65 +10652,67 @@
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A28" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" s="51" t="s">
-        <v>248</v>
+        <v>298</v>
+      </c>
+      <c r="B28" s="68" t="s">
+        <v>126</v>
       </c>
       <c r="C28" s="68" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="D28" s="68" t="s">
         <v>202</v>
       </c>
       <c r="E28" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E28" si="3">SUM(G28:BM28)</f>
         <v>1</v>
       </c>
       <c r="F28" s="71">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" ref="F28" si="4">COUNTIF(G28:AE28,"&gt;0")</f>
+        <v>2</v>
       </c>
       <c r="G28" s="49"/>
       <c r="H28" s="49"/>
       <c r="I28" s="49"/>
       <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="49"/>
-      <c r="O28" s="49"/>
-      <c r="P28" s="49"/>
-      <c r="Q28" s="49"/>
-      <c r="R28" s="49"/>
-      <c r="S28" s="49"/>
-      <c r="T28" s="49"/>
-      <c r="U28" s="49"/>
-      <c r="V28" s="49"/>
-      <c r="W28" s="49"/>
-      <c r="X28" s="49"/>
-      <c r="Y28" s="59"/>
-      <c r="Z28" s="59">
-        <v>1</v>
-      </c>
-      <c r="AA28" s="59"/>
-      <c r="AB28" s="59"/>
-      <c r="AC28" s="59"/>
-      <c r="AD28" s="59"/>
-      <c r="AE28" s="59"/>
+      <c r="K28" s="58">
+        <v>0.95</v>
+      </c>
+      <c r="L28" s="58"/>
+      <c r="M28" s="58"/>
+      <c r="N28" s="58"/>
+      <c r="O28" s="58"/>
+      <c r="P28" s="58"/>
+      <c r="Q28" s="58"/>
+      <c r="R28" s="58"/>
+      <c r="S28" s="58"/>
+      <c r="T28" s="58"/>
+      <c r="U28" s="58"/>
+      <c r="V28" s="58"/>
+      <c r="W28" s="58"/>
+      <c r="X28" s="58"/>
+      <c r="Y28" s="58"/>
+      <c r="Z28" s="58"/>
+      <c r="AA28" s="58"/>
+      <c r="AB28" s="58">
+        <v>0.05</v>
+      </c>
+      <c r="AC28" s="58"/>
+      <c r="AD28" s="49"/>
+      <c r="AE28" s="49"/>
       <c r="AF28" s="54"/>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A29" s="107" t="s">
-        <v>284</v>
-      </c>
-      <c r="B29" s="73" t="s">
-        <v>129</v>
-      </c>
-      <c r="C29" s="73" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="73" t="s">
+      <c r="A29" s="51" t="s">
+        <v>294</v>
+      </c>
+      <c r="B29" s="89" t="s">
+        <v>241</v>
+      </c>
+      <c r="C29" s="68" t="s">
+        <v>186</v>
+      </c>
+      <c r="D29" s="68" t="s">
         <v>202</v>
       </c>
       <c r="E29" s="53">
@@ -10296,9 +10723,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G29" s="49">
-        <v>1</v>
-      </c>
+      <c r="G29" s="49"/>
       <c r="H29" s="49"/>
       <c r="I29" s="49"/>
       <c r="J29" s="49"/>
@@ -10316,39 +10741,39 @@
       <c r="V29" s="49"/>
       <c r="W29" s="49"/>
       <c r="X29" s="49"/>
-      <c r="Y29" s="49"/>
-      <c r="Z29" s="49"/>
-      <c r="AA29" s="49"/>
-      <c r="AB29" s="49"/>
-      <c r="AC29" s="49"/>
-      <c r="AD29" s="49"/>
-      <c r="AE29" s="49"/>
+      <c r="Y29" s="59"/>
+      <c r="Z29" s="59">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="59"/>
+      <c r="AB29" s="59"/>
+      <c r="AC29" s="59"/>
+      <c r="AD29" s="59"/>
+      <c r="AE29" s="59"/>
       <c r="AF29" s="54"/>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A30" s="72" t="s">
-        <v>259</v>
-      </c>
-      <c r="B30" s="73" t="s">
-        <v>190</v>
-      </c>
-      <c r="C30" s="73" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="73" t="s">
+      <c r="A30" s="89" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="89" t="s">
+        <v>241</v>
+      </c>
+      <c r="C30" s="68" t="s">
+        <v>186</v>
+      </c>
+      <c r="D30" s="68" t="s">
         <v>202</v>
       </c>
       <c r="E30" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E30" si="5">SUM(G30:BM30)</f>
         <v>1</v>
       </c>
       <c r="F30" s="71">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G30" s="49">
-        <v>1</v>
-      </c>
+        <f t="shared" ref="F30" si="6">COUNTIF(G30:AE30,"&gt;0")</f>
+        <v>1</v>
+      </c>
+      <c r="G30" s="49"/>
       <c r="H30" s="49"/>
       <c r="I30" s="49"/>
       <c r="J30" s="49"/>
@@ -10366,24 +10791,26 @@
       <c r="V30" s="49"/>
       <c r="W30" s="49"/>
       <c r="X30" s="49"/>
-      <c r="Y30" s="49"/>
-      <c r="Z30" s="49"/>
-      <c r="AA30" s="49"/>
-      <c r="AB30" s="49"/>
-      <c r="AC30" s="49"/>
-      <c r="AD30" s="49"/>
-      <c r="AE30" s="49"/>
+      <c r="Y30" s="59"/>
+      <c r="Z30" s="59">
+        <v>1</v>
+      </c>
+      <c r="AA30" s="59"/>
+      <c r="AB30" s="59"/>
+      <c r="AC30" s="59"/>
+      <c r="AD30" s="59"/>
+      <c r="AE30" s="59"/>
       <c r="AF30" s="54"/>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A31" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" s="51" t="s">
-        <v>249</v>
+      <c r="A31" s="90" t="s">
+        <v>276</v>
+      </c>
+      <c r="B31" s="68" t="s">
+        <v>129</v>
       </c>
       <c r="C31" s="68" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D31" s="68" t="s">
         <v>202</v>
@@ -10396,13 +10823,13 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G31" s="49"/>
+      <c r="G31" s="49">
+        <v>1</v>
+      </c>
       <c r="H31" s="49"/>
       <c r="I31" s="49"/>
       <c r="J31" s="49"/>
-      <c r="K31" s="49">
-        <v>1</v>
-      </c>
+      <c r="K31" s="49"/>
       <c r="L31" s="49"/>
       <c r="M31" s="49"/>
       <c r="N31" s="49"/>
@@ -10426,16 +10853,16 @@
       <c r="AF31" s="54"/>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A32" s="72" t="s">
-        <v>259</v>
-      </c>
-      <c r="B32" s="73" t="s">
-        <v>133</v>
-      </c>
-      <c r="C32" s="73" t="s">
+      <c r="A32" s="51" t="s">
+        <v>293</v>
+      </c>
+      <c r="B32" s="68" t="s">
+        <v>190</v>
+      </c>
+      <c r="C32" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="73" t="s">
+      <c r="D32" s="68" t="s">
         <v>202</v>
       </c>
       <c r="E32" s="53">
@@ -10476,16 +10903,16 @@
       <c r="AF32" s="54"/>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A33" s="72" t="s">
-        <v>259</v>
-      </c>
-      <c r="B33" s="74" t="s">
-        <v>217</v>
-      </c>
-      <c r="C33" s="74" t="s">
-        <v>218</v>
-      </c>
-      <c r="D33" s="73" t="s">
+      <c r="A33" s="89" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="89" t="s">
+        <v>242</v>
+      </c>
+      <c r="C33" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="68" t="s">
         <v>202</v>
       </c>
       <c r="E33" s="53">
@@ -10497,6 +10924,2683 @@
         <v>1</v>
       </c>
       <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49">
+        <v>1</v>
+      </c>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="49"/>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="49"/>
+      <c r="S33" s="49"/>
+      <c r="T33" s="49"/>
+      <c r="U33" s="49"/>
+      <c r="V33" s="49"/>
+      <c r="W33" s="49"/>
+      <c r="X33" s="49"/>
+      <c r="Y33" s="49"/>
+      <c r="Z33" s="49"/>
+      <c r="AA33" s="49"/>
+      <c r="AB33" s="49"/>
+      <c r="AC33" s="49"/>
+      <c r="AD33" s="49"/>
+      <c r="AE33" s="49"/>
+      <c r="AF33" s="54"/>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A34" s="88" t="s">
+        <v>251</v>
+      </c>
+      <c r="B34" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="E34" s="53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F34" s="71">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G34" s="49">
+        <v>1</v>
+      </c>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="49"/>
+      <c r="P34" s="49"/>
+      <c r="Q34" s="49"/>
+      <c r="R34" s="49"/>
+      <c r="S34" s="49"/>
+      <c r="T34" s="49"/>
+      <c r="U34" s="49"/>
+      <c r="V34" s="49"/>
+      <c r="W34" s="49"/>
+      <c r="X34" s="49"/>
+      <c r="Y34" s="49"/>
+      <c r="Z34" s="49"/>
+      <c r="AA34" s="49"/>
+      <c r="AB34" s="49"/>
+      <c r="AC34" s="49"/>
+      <c r="AD34" s="49"/>
+      <c r="AE34" s="49"/>
+      <c r="AF34" s="54"/>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A35" s="88" t="s">
+        <v>251</v>
+      </c>
+      <c r="B35" s="69" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" s="69" t="s">
+        <v>212</v>
+      </c>
+      <c r="D35" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="E35" s="53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F35" s="71">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="49"/>
+      <c r="Q35" s="49"/>
+      <c r="R35" s="49"/>
+      <c r="S35" s="49"/>
+      <c r="T35" s="49"/>
+      <c r="U35" s="49"/>
+      <c r="V35" s="49"/>
+      <c r="W35" s="49"/>
+      <c r="X35" s="49"/>
+      <c r="Y35" s="49"/>
+      <c r="Z35" s="49"/>
+      <c r="AA35" s="49"/>
+      <c r="AB35" s="49"/>
+      <c r="AC35" s="49"/>
+      <c r="AD35" s="49">
+        <v>1</v>
+      </c>
+      <c r="AE35" s="49">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="54"/>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A36" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="B36" s="89" t="s">
+        <v>243</v>
+      </c>
+      <c r="C36" s="69" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="E36" s="53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F36" s="71">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="60">
+        <v>0.2</v>
+      </c>
+      <c r="L36" s="60"/>
+      <c r="M36" s="60">
+        <v>0.24</v>
+      </c>
+      <c r="N36" s="60"/>
+      <c r="O36" s="60">
+        <v>0</v>
+      </c>
+      <c r="P36" s="60"/>
+      <c r="Q36" s="60">
+        <v>0.05</v>
+      </c>
+      <c r="R36" s="60">
+        <v>0.04</v>
+      </c>
+      <c r="S36" s="60">
+        <v>0.02</v>
+      </c>
+      <c r="T36" s="60">
+        <v>0.06</v>
+      </c>
+      <c r="U36" s="60">
+        <v>0.39</v>
+      </c>
+      <c r="V36" s="61">
+        <v>0</v>
+      </c>
+      <c r="W36" s="61"/>
+      <c r="X36" s="49"/>
+      <c r="Y36" s="49"/>
+      <c r="Z36" s="49"/>
+      <c r="AA36" s="49"/>
+      <c r="AB36" s="49"/>
+      <c r="AC36" s="49"/>
+      <c r="AD36" s="49"/>
+      <c r="AE36" s="49"/>
+      <c r="AF36" s="54"/>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A37" s="85" t="s">
+        <v>296</v>
+      </c>
+      <c r="B37" s="89" t="s">
+        <v>243</v>
+      </c>
+      <c r="C37" s="69" t="s">
+        <v>142</v>
+      </c>
+      <c r="D37" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="E37" s="53">
+        <f t="shared" ref="E37" si="7">SUM(G37:BM37)</f>
+        <v>1</v>
+      </c>
+      <c r="F37" s="71">
+        <f t="shared" ref="F37" si="8">COUNTIF(G37:AE37,"&gt;0")</f>
+        <v>7</v>
+      </c>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="60">
+        <v>0.2</v>
+      </c>
+      <c r="L37" s="60"/>
+      <c r="M37" s="60">
+        <v>0.24</v>
+      </c>
+      <c r="N37" s="60"/>
+      <c r="O37" s="60">
+        <v>0</v>
+      </c>
+      <c r="P37" s="60"/>
+      <c r="Q37" s="60">
+        <v>0.05</v>
+      </c>
+      <c r="R37" s="60">
+        <v>0.04</v>
+      </c>
+      <c r="S37" s="60">
+        <v>0.02</v>
+      </c>
+      <c r="T37" s="60">
+        <v>0.06</v>
+      </c>
+      <c r="U37" s="60">
+        <v>0.39</v>
+      </c>
+      <c r="V37" s="61">
+        <v>0</v>
+      </c>
+      <c r="W37" s="61"/>
+      <c r="X37" s="49"/>
+      <c r="Y37" s="49"/>
+      <c r="Z37" s="49"/>
+      <c r="AA37" s="49"/>
+      <c r="AB37" s="49"/>
+      <c r="AC37" s="49"/>
+      <c r="AD37" s="49"/>
+      <c r="AE37" s="49"/>
+      <c r="AF37" s="54"/>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A38" s="85" t="s">
+        <v>299</v>
+      </c>
+      <c r="B38" s="89" t="s">
+        <v>243</v>
+      </c>
+      <c r="C38" s="69" t="s">
+        <v>142</v>
+      </c>
+      <c r="D38" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="E38" s="53">
+        <f t="shared" ref="E38" si="9">SUM(G38:BM38)</f>
+        <v>1</v>
+      </c>
+      <c r="F38" s="71">
+        <f t="shared" ref="F38" si="10">COUNTIF(G38:AE38,"&gt;0")</f>
+        <v>7</v>
+      </c>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="60">
+        <v>0.2</v>
+      </c>
+      <c r="L38" s="60"/>
+      <c r="M38" s="60">
+        <v>0.24</v>
+      </c>
+      <c r="N38" s="60"/>
+      <c r="O38" s="60">
+        <v>0</v>
+      </c>
+      <c r="P38" s="60"/>
+      <c r="Q38" s="60">
+        <v>0.05</v>
+      </c>
+      <c r="R38" s="60">
+        <v>0.04</v>
+      </c>
+      <c r="S38" s="60">
+        <v>0.02</v>
+      </c>
+      <c r="T38" s="60">
+        <v>0.06</v>
+      </c>
+      <c r="U38" s="60">
+        <v>0.39</v>
+      </c>
+      <c r="V38" s="61">
+        <v>0</v>
+      </c>
+      <c r="W38" s="61"/>
+      <c r="X38" s="49"/>
+      <c r="Y38" s="49"/>
+      <c r="Z38" s="49"/>
+      <c r="AA38" s="49"/>
+      <c r="AB38" s="49"/>
+      <c r="AC38" s="49"/>
+      <c r="AD38" s="49"/>
+      <c r="AE38" s="49"/>
+      <c r="AF38" s="54"/>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A39" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="89" t="s">
+        <v>244</v>
+      </c>
+      <c r="C39" s="69" t="s">
+        <v>149</v>
+      </c>
+      <c r="D39" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="E39" s="53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F39" s="71">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="49"/>
+      <c r="N39" s="49"/>
+      <c r="O39" s="49"/>
+      <c r="P39" s="49"/>
+      <c r="Q39" s="49"/>
+      <c r="R39" s="49"/>
+      <c r="S39" s="49"/>
+      <c r="T39" s="49"/>
+      <c r="U39" s="49"/>
+      <c r="V39" s="49"/>
+      <c r="W39" s="49"/>
+      <c r="X39" s="62">
+        <v>0.27</v>
+      </c>
+      <c r="Y39" s="62">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="Z39" s="62">
+        <v>0.44</v>
+      </c>
+      <c r="AA39" s="49"/>
+      <c r="AB39" s="49"/>
+      <c r="AC39" s="49"/>
+      <c r="AD39" s="49"/>
+      <c r="AE39" s="49"/>
+      <c r="AF39" s="54"/>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A40" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="89" t="s">
+        <v>244</v>
+      </c>
+      <c r="C40" s="69"/>
+      <c r="D40" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="E40" s="53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F40" s="71">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="49"/>
+      <c r="L40" s="49"/>
+      <c r="M40" s="49"/>
+      <c r="N40" s="49"/>
+      <c r="O40" s="49"/>
+      <c r="P40" s="49"/>
+      <c r="Q40" s="49"/>
+      <c r="R40" s="49"/>
+      <c r="S40" s="49"/>
+      <c r="T40" s="49"/>
+      <c r="U40" s="49"/>
+      <c r="V40" s="49"/>
+      <c r="W40" s="49"/>
+      <c r="X40" s="62">
+        <v>0.27</v>
+      </c>
+      <c r="Y40" s="62">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="Z40" s="62">
+        <v>0.44</v>
+      </c>
+      <c r="AA40" s="49"/>
+      <c r="AB40" s="49"/>
+      <c r="AC40" s="49"/>
+      <c r="AD40" s="49"/>
+      <c r="AE40" s="49"/>
+      <c r="AF40" s="54"/>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A41" s="89" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="89" t="s">
+        <v>245</v>
+      </c>
+      <c r="C41" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="E41" s="53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F41" s="71">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G41" s="49">
+        <v>1</v>
+      </c>
+      <c r="H41" s="49"/>
+      <c r="I41" s="49"/>
+      <c r="J41" s="49"/>
+      <c r="K41" s="49"/>
+      <c r="L41" s="49"/>
+      <c r="M41" s="49"/>
+      <c r="N41" s="49"/>
+      <c r="O41" s="49"/>
+      <c r="P41" s="49"/>
+      <c r="Q41" s="49"/>
+      <c r="R41" s="49"/>
+      <c r="S41" s="49"/>
+      <c r="T41" s="49"/>
+      <c r="U41" s="49"/>
+      <c r="V41" s="49"/>
+      <c r="W41" s="49"/>
+      <c r="X41" s="49"/>
+      <c r="Y41" s="49"/>
+      <c r="Z41" s="49"/>
+      <c r="AA41" s="49"/>
+      <c r="AB41" s="49"/>
+      <c r="AC41" s="49"/>
+      <c r="AD41" s="49"/>
+      <c r="AE41" s="49"/>
+      <c r="AF41" s="54"/>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A42" s="89" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="89" t="s">
+        <v>246</v>
+      </c>
+      <c r="C42" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="E42" s="53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F42" s="71">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G42" s="49">
+        <v>1</v>
+      </c>
+      <c r="H42" s="49"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="49"/>
+      <c r="K42" s="49"/>
+      <c r="L42" s="49"/>
+      <c r="M42" s="49"/>
+      <c r="N42" s="49"/>
+      <c r="O42" s="49"/>
+      <c r="P42" s="49"/>
+      <c r="Q42" s="49"/>
+      <c r="R42" s="49"/>
+      <c r="S42" s="49"/>
+      <c r="T42" s="49"/>
+      <c r="U42" s="49"/>
+      <c r="V42" s="49"/>
+      <c r="W42" s="49"/>
+      <c r="X42" s="49"/>
+      <c r="Y42" s="49"/>
+      <c r="Z42" s="49"/>
+      <c r="AA42" s="49"/>
+      <c r="AB42" s="49"/>
+      <c r="AC42" s="49"/>
+      <c r="AD42" s="49"/>
+      <c r="AE42" s="49"/>
+      <c r="AF42" s="54"/>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A43" s="89" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="89" t="s">
+        <v>247</v>
+      </c>
+      <c r="C43" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="E43" s="53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F43" s="71">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G43" s="49">
+        <v>1</v>
+      </c>
+      <c r="H43" s="49"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="49"/>
+      <c r="K43" s="49"/>
+      <c r="L43" s="49"/>
+      <c r="M43" s="49"/>
+      <c r="N43" s="49"/>
+      <c r="O43" s="49"/>
+      <c r="P43" s="49"/>
+      <c r="Q43" s="49"/>
+      <c r="R43" s="49"/>
+      <c r="S43" s="49"/>
+      <c r="T43" s="49"/>
+      <c r="U43" s="49"/>
+      <c r="V43" s="49"/>
+      <c r="W43" s="49"/>
+      <c r="X43" s="49"/>
+      <c r="Y43" s="49"/>
+      <c r="Z43" s="49"/>
+      <c r="AA43" s="49"/>
+      <c r="AB43" s="49"/>
+      <c r="AC43" s="49"/>
+      <c r="AD43" s="49"/>
+      <c r="AE43" s="49"/>
+      <c r="AF43" s="54"/>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A44" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="89" t="s">
+        <v>248</v>
+      </c>
+      <c r="C44" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="E44" s="53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F44" s="71">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="49"/>
+      <c r="K44" s="58">
+        <v>0</v>
+      </c>
+      <c r="L44" s="58"/>
+      <c r="M44" s="58"/>
+      <c r="N44" s="58"/>
+      <c r="O44" s="58"/>
+      <c r="P44" s="58"/>
+      <c r="Q44" s="58"/>
+      <c r="R44" s="58"/>
+      <c r="S44" s="58"/>
+      <c r="T44" s="58"/>
+      <c r="U44" s="58"/>
+      <c r="V44" s="58"/>
+      <c r="W44" s="58"/>
+      <c r="X44" s="58">
+        <v>0.02</v>
+      </c>
+      <c r="Y44" s="58">
+        <v>0.09</v>
+      </c>
+      <c r="Z44" s="58"/>
+      <c r="AA44" s="58"/>
+      <c r="AB44" s="58">
+        <v>0.89</v>
+      </c>
+      <c r="AC44" s="58"/>
+      <c r="AD44" s="49"/>
+      <c r="AE44" s="49"/>
+      <c r="AF44" s="54"/>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A45" s="89" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" s="89" t="s">
+        <v>248</v>
+      </c>
+      <c r="C45" s="69"/>
+      <c r="D45" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="E45" s="53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F45" s="71">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G45" s="49"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="49"/>
+      <c r="K45" s="58"/>
+      <c r="L45" s="58"/>
+      <c r="M45" s="58"/>
+      <c r="N45" s="58"/>
+      <c r="O45" s="58"/>
+      <c r="P45" s="58"/>
+      <c r="Q45" s="58"/>
+      <c r="R45" s="58"/>
+      <c r="S45" s="58"/>
+      <c r="T45" s="58"/>
+      <c r="U45" s="58"/>
+      <c r="V45" s="58"/>
+      <c r="W45" s="58"/>
+      <c r="X45" s="58">
+        <v>0.02</v>
+      </c>
+      <c r="Y45" s="58">
+        <v>0.09</v>
+      </c>
+      <c r="Z45" s="58"/>
+      <c r="AA45" s="58"/>
+      <c r="AB45" s="58">
+        <v>0.89</v>
+      </c>
+      <c r="AC45" s="58"/>
+      <c r="AD45" s="49"/>
+      <c r="AE45" s="49"/>
+      <c r="AF45" s="54"/>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A46" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" s="89" t="s">
+        <v>249</v>
+      </c>
+      <c r="C46" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="D46" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="E46" s="53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F46" s="71">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G46" s="49"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="49"/>
+      <c r="J46" s="49"/>
+      <c r="K46" s="49"/>
+      <c r="L46" s="49"/>
+      <c r="M46" s="49"/>
+      <c r="N46" s="49">
+        <v>1</v>
+      </c>
+      <c r="O46" s="49"/>
+      <c r="P46" s="49"/>
+      <c r="Q46" s="49"/>
+      <c r="R46" s="49"/>
+      <c r="S46" s="49"/>
+      <c r="T46" s="49"/>
+      <c r="U46" s="49"/>
+      <c r="V46" s="49"/>
+      <c r="W46" s="49"/>
+      <c r="X46" s="49"/>
+      <c r="Y46" s="49"/>
+      <c r="Z46" s="49"/>
+      <c r="AA46" s="49"/>
+      <c r="AB46" s="49"/>
+      <c r="AC46" s="49"/>
+      <c r="AD46" s="49"/>
+      <c r="AE46" s="49"/>
+      <c r="AF46" s="54"/>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A47" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="89" t="s">
+        <v>250</v>
+      </c>
+      <c r="C47" s="68" t="s">
+        <v>206</v>
+      </c>
+      <c r="D47" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="E47" s="53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F47" s="71">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G47" s="49"/>
+      <c r="H47" s="49"/>
+      <c r="I47" s="49">
+        <v>1</v>
+      </c>
+      <c r="J47" s="49"/>
+      <c r="K47" s="49"/>
+      <c r="L47" s="49"/>
+      <c r="M47" s="49"/>
+      <c r="N47" s="49"/>
+      <c r="O47" s="49"/>
+      <c r="P47" s="49"/>
+      <c r="Q47" s="49"/>
+      <c r="R47" s="49"/>
+      <c r="S47" s="49"/>
+      <c r="T47" s="49"/>
+      <c r="U47" s="49"/>
+      <c r="V47" s="49"/>
+      <c r="W47" s="49"/>
+      <c r="X47" s="49"/>
+      <c r="Y47" s="49"/>
+      <c r="Z47" s="49"/>
+      <c r="AA47" s="49"/>
+      <c r="AB47" s="49"/>
+      <c r="AC47" s="49"/>
+      <c r="AD47" s="49"/>
+      <c r="AE47" s="49"/>
+      <c r="AF47" s="54"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E5:E27 E31:E36 E39:E47 E29">
+    <cfRule type="cellIs" dxfId="31" priority="16" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F27 F31:F36 F39:F47 F29">
+    <cfRule type="cellIs" dxfId="30" priority="15" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="cellIs" dxfId="29" priority="12" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="cellIs" dxfId="28" priority="11" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="27" priority="10" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
+    <cfRule type="cellIs" dxfId="26" priority="9" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="25" priority="6" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="cellIs" dxfId="24" priority="5" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="cellIs" dxfId="23" priority="4" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28">
+    <cfRule type="cellIs" dxfId="22" priority="3" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:AH51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.08984375" style="52" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.54296875" style="61" customWidth="1"/>
+    <col min="3" max="3" width="26.54296875" style="61" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.36328125" style="50" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" style="63" customWidth="1"/>
+    <col min="6" max="6" width="7.6328125" style="63" customWidth="1"/>
+    <col min="7" max="31" width="13" style="51" customWidth="1"/>
+    <col min="32" max="32" width="11.81640625" style="51" customWidth="1"/>
+    <col min="33" max="16384" width="8.7265625" style="51"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="64"/>
+      <c r="B1" s="64" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" s="65">
+        <v>43831</v>
+      </c>
+      <c r="D1" s="65"/>
+      <c r="E1" s="66" t="s">
+        <v>196</v>
+      </c>
+      <c r="F1" s="70"/>
+      <c r="G1" s="86" t="s">
+        <v>271</v>
+      </c>
+      <c r="H1" s="86" t="s">
+        <v>205</v>
+      </c>
+      <c r="I1" s="86" t="s">
+        <v>205</v>
+      </c>
+      <c r="J1" s="86" t="s">
+        <v>205</v>
+      </c>
+      <c r="K1" s="86" t="s">
+        <v>282</v>
+      </c>
+      <c r="L1" s="86" t="s">
+        <v>272</v>
+      </c>
+      <c r="M1" s="86" t="s">
+        <v>283</v>
+      </c>
+      <c r="N1" s="86" t="s">
+        <v>273</v>
+      </c>
+      <c r="O1" s="86" t="s">
+        <v>284</v>
+      </c>
+      <c r="P1" s="86" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q1" s="86" t="s">
+        <v>285</v>
+      </c>
+      <c r="R1" s="86" t="s">
+        <v>286</v>
+      </c>
+      <c r="S1" s="86" t="s">
+        <v>282</v>
+      </c>
+      <c r="T1" s="86" t="s">
+        <v>287</v>
+      </c>
+      <c r="U1" s="86" t="s">
+        <v>274</v>
+      </c>
+      <c r="V1" s="86" t="s">
+        <v>283</v>
+      </c>
+      <c r="W1" s="86" t="s">
+        <v>285</v>
+      </c>
+      <c r="X1" s="86" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y1" s="86" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z1" s="86" t="s">
+        <v>275</v>
+      </c>
+      <c r="AA1" s="86" t="s">
+        <v>290</v>
+      </c>
+      <c r="AB1" s="86" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC1" s="86" t="s">
+        <v>205</v>
+      </c>
+      <c r="AD1" s="86" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE1" s="87" t="s">
+        <v>291</v>
+      </c>
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="72"/>
+      <c r="AH1" s="72"/>
+    </row>
+    <row r="2" spans="1:34" s="73" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81" t="s">
+        <v>214</v>
+      </c>
+      <c r="F2" s="82"/>
+      <c r="G2" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="86" t="s">
+        <v>252</v>
+      </c>
+      <c r="I2" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="86" t="s">
+        <v>253</v>
+      </c>
+      <c r="K2" s="86" t="s">
+        <v>254</v>
+      </c>
+      <c r="L2" s="86" t="s">
+        <v>256</v>
+      </c>
+      <c r="M2" s="86" t="s">
+        <v>255</v>
+      </c>
+      <c r="N2" s="86" t="s">
+        <v>258</v>
+      </c>
+      <c r="O2" s="86" t="s">
+        <v>259</v>
+      </c>
+      <c r="P2" s="86" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q2" s="86" t="s">
+        <v>265</v>
+      </c>
+      <c r="R2" s="86" t="s">
+        <v>260</v>
+      </c>
+      <c r="S2" s="86" t="s">
+        <v>261</v>
+      </c>
+      <c r="T2" s="86" t="s">
+        <v>262</v>
+      </c>
+      <c r="U2" s="86" t="s">
+        <v>263</v>
+      </c>
+      <c r="V2" s="86" t="s">
+        <v>264</v>
+      </c>
+      <c r="W2" s="86" t="s">
+        <v>277</v>
+      </c>
+      <c r="X2" s="86" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y2" s="86" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z2" s="86" t="s">
+        <v>267</v>
+      </c>
+      <c r="AA2" s="86" t="s">
+        <v>268</v>
+      </c>
+      <c r="AB2" s="86" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC2" s="86" t="s">
+        <v>269</v>
+      </c>
+      <c r="AD2" s="86" t="s">
+        <v>270</v>
+      </c>
+      <c r="AE2" s="86" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" s="84" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="74" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" s="75" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" s="76" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" s="77" t="s">
+        <v>201</v>
+      </c>
+      <c r="E3" s="67">
+        <f>SUM(E4:E129)</f>
+        <v>48</v>
+      </c>
+      <c r="F3" s="77" t="s">
+        <v>215</v>
+      </c>
+      <c r="G3" s="83">
+        <f t="shared" ref="G3:AE3" si="0">SUM(G4:G51)</f>
+        <v>16.72</v>
+      </c>
+      <c r="H3" s="83">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I3" s="83">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J3" s="83">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K3" s="83">
+        <f t="shared" si="0"/>
+        <v>6.7000000000000011</v>
+      </c>
+      <c r="L3" s="83">
+        <f t="shared" si="0"/>
+        <v>1.33</v>
+      </c>
+      <c r="M3" s="83">
+        <f t="shared" si="0"/>
+        <v>1.63</v>
+      </c>
+      <c r="N3" s="83">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O3" s="83">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="P3" s="83">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
+      </c>
+      <c r="Q3" s="83">
+        <f t="shared" si="0"/>
+        <v>1.0100000000000002</v>
+      </c>
+      <c r="R3" s="83">
+        <f t="shared" si="0"/>
+        <v>0.51999999999999991</v>
+      </c>
+      <c r="S3" s="83">
+        <f t="shared" si="0"/>
+        <v>0.33000000000000007</v>
+      </c>
+      <c r="T3" s="83">
+        <f t="shared" si="0"/>
+        <v>0.34</v>
+      </c>
+      <c r="U3" s="83">
+        <f t="shared" si="0"/>
+        <v>2.0100000000000002</v>
+      </c>
+      <c r="V3" s="83">
+        <f t="shared" si="0"/>
+        <v>1.18</v>
+      </c>
+      <c r="W3" s="83">
+        <f t="shared" si="0"/>
+        <v>0.27</v>
+      </c>
+      <c r="X3" s="83">
+        <f t="shared" si="0"/>
+        <v>0.58000000000000007</v>
+      </c>
+      <c r="Y3" s="83">
+        <f t="shared" si="0"/>
+        <v>0.7599999999999999</v>
+      </c>
+      <c r="Z3" s="83">
+        <f t="shared" si="0"/>
+        <v>2.88</v>
+      </c>
+      <c r="AA3" s="83">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="AB3" s="83">
+        <f t="shared" si="0"/>
+        <v>1.88</v>
+      </c>
+      <c r="AC3" s="83">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="AD3" s="83">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AE3" s="83">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A4" s="85" t="s">
+        <v>276</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="E4" s="53">
+        <f t="shared" ref="E4:E51" si="1">SUM(G4:BM4)</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="71">
+        <f>COUNTIF(G4:AE4,"&gt;0")</f>
+        <v>1</v>
+      </c>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="49"/>
+      <c r="Z4" s="49"/>
+      <c r="AA4" s="49"/>
+      <c r="AB4" s="49"/>
+      <c r="AC4" s="49"/>
+      <c r="AD4" s="49"/>
+      <c r="AE4" s="49">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="54"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A5" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="E5" s="53">
+        <f>SUM(G5:BM5)</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="71">
+        <f>COUNTIF(G5:AE5,"&gt;0")</f>
+        <v>1</v>
+      </c>
+      <c r="G5" s="49">
+        <v>1</v>
+      </c>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="49"/>
+      <c r="T5" s="49"/>
+      <c r="U5" s="49"/>
+      <c r="V5" s="49"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="49"/>
+      <c r="Y5" s="49"/>
+      <c r="Z5" s="49"/>
+      <c r="AA5" s="49"/>
+      <c r="AB5" s="49"/>
+      <c r="AC5" s="49"/>
+      <c r="AD5" s="49"/>
+      <c r="AE5" s="49"/>
+      <c r="AF5" s="54"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A6" s="51" t="s">
+        <v>292</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>207</v>
+      </c>
+      <c r="D6" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="E6" s="53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F6" s="71">
+        <f t="shared" ref="F6:F51" si="2">COUNTIF(G6:AE6,"&gt;0")</f>
+        <v>1</v>
+      </c>
+      <c r="G6" s="49">
+        <v>1</v>
+      </c>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="49"/>
+      <c r="Y6" s="49"/>
+      <c r="Z6" s="49"/>
+      <c r="AA6" s="49"/>
+      <c r="AB6" s="49"/>
+      <c r="AC6" s="49"/>
+      <c r="AD6" s="49"/>
+      <c r="AE6" s="49"/>
+      <c r="AF6" s="54"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A7" s="88" t="s">
+        <v>278</v>
+      </c>
+      <c r="B7" s="68" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>207</v>
+      </c>
+      <c r="D7" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="E7" s="53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F7" s="71">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G7" s="49">
+        <v>1</v>
+      </c>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="49"/>
+      <c r="V7" s="49"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="49"/>
+      <c r="AB7" s="49"/>
+      <c r="AC7" s="49"/>
+      <c r="AD7" s="49"/>
+      <c r="AE7" s="49"/>
+      <c r="AF7" s="54"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A8" s="89" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="89" t="s">
+        <v>220</v>
+      </c>
+      <c r="C8" s="68" t="s">
+        <v>206</v>
+      </c>
+      <c r="D8" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="E8" s="53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F8" s="71">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49">
+        <v>1</v>
+      </c>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="49"/>
+      <c r="V8" s="49"/>
+      <c r="W8" s="49"/>
+      <c r="X8" s="49"/>
+      <c r="Y8" s="49"/>
+      <c r="Z8" s="49"/>
+      <c r="AA8" s="49"/>
+      <c r="AB8" s="49"/>
+      <c r="AC8" s="49"/>
+      <c r="AD8" s="49"/>
+      <c r="AE8" s="49"/>
+      <c r="AF8" s="54"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A9" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="89" t="s">
+        <v>221</v>
+      </c>
+      <c r="C9" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="E9" s="53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F9" s="71">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="49">
+        <v>1</v>
+      </c>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="49"/>
+      <c r="AB9" s="49"/>
+      <c r="AC9" s="49"/>
+      <c r="AD9" s="49"/>
+      <c r="AE9" s="49"/>
+      <c r="AF9" s="54"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A10" s="89" t="s">
+        <v>302</v>
+      </c>
+      <c r="B10" s="89" t="s">
+        <v>221</v>
+      </c>
+      <c r="C10" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="E10" s="53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F10" s="71">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G10" s="49">
+        <v>1</v>
+      </c>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="49"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="49"/>
+      <c r="X10" s="49"/>
+      <c r="Y10" s="49"/>
+      <c r="Z10" s="49"/>
+      <c r="AA10" s="49"/>
+      <c r="AB10" s="49"/>
+      <c r="AC10" s="49"/>
+      <c r="AD10" s="49"/>
+      <c r="AE10" s="49"/>
+      <c r="AF10" s="54"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A11" s="89" t="s">
+        <v>301</v>
+      </c>
+      <c r="B11" s="89" t="s">
+        <v>221</v>
+      </c>
+      <c r="C11" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="E11" s="53">
+        <f t="shared" ref="E11" si="3">SUM(G11:BM11)</f>
+        <v>1</v>
+      </c>
+      <c r="F11" s="71">
+        <f t="shared" ref="F11" si="4">COUNTIF(G11:AE11,"&gt;0")</f>
+        <v>1</v>
+      </c>
+      <c r="G11" s="49">
+        <v>1</v>
+      </c>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="49"/>
+      <c r="U11" s="49"/>
+      <c r="V11" s="49"/>
+      <c r="W11" s="49"/>
+      <c r="X11" s="49"/>
+      <c r="Y11" s="49"/>
+      <c r="Z11" s="49"/>
+      <c r="AA11" s="49"/>
+      <c r="AB11" s="49"/>
+      <c r="AC11" s="49"/>
+      <c r="AD11" s="49"/>
+      <c r="AE11" s="49"/>
+      <c r="AF11" s="54"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A12" s="89" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="89" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="E12" s="53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F12" s="71">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49">
+        <v>1</v>
+      </c>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="49"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="49"/>
+      <c r="X12" s="49"/>
+      <c r="Y12" s="49"/>
+      <c r="Z12" s="49"/>
+      <c r="AA12" s="49"/>
+      <c r="AB12" s="49"/>
+      <c r="AC12" s="49"/>
+      <c r="AD12" s="49"/>
+      <c r="AE12" s="49"/>
+      <c r="AF12" s="54"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A13" s="89" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="89" t="s">
+        <v>223</v>
+      </c>
+      <c r="C13" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="E13" s="53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F13" s="71">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="49">
+        <v>1</v>
+      </c>
+      <c r="W13" s="49"/>
+      <c r="X13" s="49"/>
+      <c r="Y13" s="49"/>
+      <c r="Z13" s="49"/>
+      <c r="AA13" s="49"/>
+      <c r="AB13" s="49"/>
+      <c r="AC13" s="49"/>
+      <c r="AD13" s="49"/>
+      <c r="AE13" s="49"/>
+      <c r="AF13" s="54"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A14" s="89" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="89" t="s">
+        <v>224</v>
+      </c>
+      <c r="C14" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="E14" s="53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F14" s="71">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G14" s="49">
+        <v>0.72</v>
+      </c>
+      <c r="H14" s="49">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="49"/>
+      <c r="W14" s="49"/>
+      <c r="X14" s="49"/>
+      <c r="Y14" s="49"/>
+      <c r="Z14" s="49"/>
+      <c r="AA14" s="49"/>
+      <c r="AB14" s="49"/>
+      <c r="AC14" s="49"/>
+      <c r="AD14" s="49"/>
+      <c r="AE14" s="49"/>
+      <c r="AF14" s="54"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A15" s="89" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="89" t="s">
+        <v>225</v>
+      </c>
+      <c r="C15" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="E15" s="53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F15" s="71">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49">
+        <v>1</v>
+      </c>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="49"/>
+      <c r="U15" s="49"/>
+      <c r="V15" s="49"/>
+      <c r="W15" s="49"/>
+      <c r="X15" s="49"/>
+      <c r="Y15" s="49"/>
+      <c r="Z15" s="49"/>
+      <c r="AA15" s="49"/>
+      <c r="AB15" s="49"/>
+      <c r="AC15" s="49"/>
+      <c r="AD15" s="49"/>
+      <c r="AE15" s="49"/>
+      <c r="AF15" s="54"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A16" s="89" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="89" t="s">
+        <v>226</v>
+      </c>
+      <c r="C16" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="E16" s="53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F16" s="71">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="49"/>
+      <c r="U16" s="49"/>
+      <c r="V16" s="49"/>
+      <c r="W16" s="49"/>
+      <c r="X16" s="49"/>
+      <c r="Y16" s="49"/>
+      <c r="Z16" s="49"/>
+      <c r="AA16" s="49">
+        <v>0.9</v>
+      </c>
+      <c r="AB16" s="49"/>
+      <c r="AC16" s="49">
+        <v>0.1</v>
+      </c>
+      <c r="AD16" s="49"/>
+      <c r="AE16" s="49"/>
+      <c r="AF16" s="54"/>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A17" s="89" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="C17" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="E17" s="53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F17" s="71">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49">
+        <v>0.33</v>
+      </c>
+      <c r="M17" s="49">
+        <v>0.67</v>
+      </c>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="49"/>
+      <c r="U17" s="49"/>
+      <c r="V17" s="49"/>
+      <c r="W17" s="49"/>
+      <c r="X17" s="49"/>
+      <c r="Y17" s="49"/>
+      <c r="Z17" s="49"/>
+      <c r="AA17" s="49"/>
+      <c r="AB17" s="49"/>
+      <c r="AC17" s="49"/>
+      <c r="AD17" s="49"/>
+      <c r="AE17" s="49"/>
+      <c r="AF17" s="54"/>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A18" s="89" t="s">
+        <v>217</v>
+      </c>
+      <c r="B18" s="89" t="s">
+        <v>218</v>
+      </c>
+      <c r="C18" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="E18" s="53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F18" s="71">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49">
+        <v>1</v>
+      </c>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="49"/>
+      <c r="U18" s="49"/>
+      <c r="V18" s="49"/>
+      <c r="W18" s="49"/>
+      <c r="X18" s="49"/>
+      <c r="Y18" s="49"/>
+      <c r="Z18" s="49"/>
+      <c r="AA18" s="49"/>
+      <c r="AB18" s="49"/>
+      <c r="AC18" s="49"/>
+      <c r="AD18" s="49"/>
+      <c r="AE18" s="49"/>
+      <c r="AF18" s="54"/>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A19" s="88" t="s">
+        <v>279</v>
+      </c>
+      <c r="B19" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="C19" s="68" t="s">
+        <v>210</v>
+      </c>
+      <c r="D19" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="E19" s="53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F19" s="71">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="55">
+        <v>0.15</v>
+      </c>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="55">
+        <v>0.74</v>
+      </c>
+      <c r="R19" s="55">
+        <v>0.11</v>
+      </c>
+      <c r="S19" s="49"/>
+      <c r="T19" s="49"/>
+      <c r="U19" s="49"/>
+      <c r="V19" s="49"/>
+      <c r="W19" s="49"/>
+      <c r="X19" s="49"/>
+      <c r="Y19" s="49"/>
+      <c r="Z19" s="49"/>
+      <c r="AA19" s="49"/>
+      <c r="AB19" s="49"/>
+      <c r="AC19" s="49"/>
+      <c r="AD19" s="49"/>
+      <c r="AE19" s="49"/>
+      <c r="AF19" s="54"/>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A20" s="89" t="s">
+        <v>228</v>
+      </c>
+      <c r="B20" s="89" t="s">
+        <v>229</v>
+      </c>
+      <c r="C20" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="E20" s="53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F20" s="71">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="49"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="U20" s="56">
+        <v>0.45</v>
+      </c>
+      <c r="V20" s="56">
+        <v>0.18</v>
+      </c>
+      <c r="W20" s="56">
+        <v>0.27</v>
+      </c>
+      <c r="X20" s="49"/>
+      <c r="Y20" s="49"/>
+      <c r="Z20" s="49"/>
+      <c r="AA20" s="49"/>
+      <c r="AB20" s="49"/>
+      <c r="AC20" s="49"/>
+      <c r="AD20" s="49"/>
+      <c r="AE20" s="49"/>
+      <c r="AF20" s="54"/>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A21" s="89" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="89" t="s">
+        <v>230</v>
+      </c>
+      <c r="C21" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="E21" s="53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F21" s="71">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G21" s="49">
+        <v>1</v>
+      </c>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="49"/>
+      <c r="U21" s="49"/>
+      <c r="V21" s="49"/>
+      <c r="W21" s="49"/>
+      <c r="X21" s="49"/>
+      <c r="Y21" s="49"/>
+      <c r="Z21" s="49"/>
+      <c r="AA21" s="49"/>
+      <c r="AB21" s="49"/>
+      <c r="AC21" s="49"/>
+      <c r="AD21" s="49"/>
+      <c r="AE21" s="49"/>
+      <c r="AF21" s="54"/>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A22" s="89" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="89" t="s">
+        <v>231</v>
+      </c>
+      <c r="C22" s="68" t="s">
+        <v>180</v>
+      </c>
+      <c r="D22" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="E22" s="53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F22" s="71">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49">
+        <v>1</v>
+      </c>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="49"/>
+      <c r="T22" s="49"/>
+      <c r="U22" s="49"/>
+      <c r="V22" s="49"/>
+      <c r="W22" s="49"/>
+      <c r="X22" s="49"/>
+      <c r="Y22" s="49"/>
+      <c r="Z22" s="49"/>
+      <c r="AA22" s="49"/>
+      <c r="AB22" s="49"/>
+      <c r="AC22" s="49"/>
+      <c r="AD22" s="49"/>
+      <c r="AE22" s="49"/>
+      <c r="AF22" s="54"/>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A23" s="89" t="s">
+        <v>232</v>
+      </c>
+      <c r="B23" s="89" t="s">
+        <v>233</v>
+      </c>
+      <c r="C23" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="E23" s="53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F23" s="71">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49">
+        <v>1</v>
+      </c>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="49"/>
+      <c r="U23" s="49"/>
+      <c r="V23" s="49"/>
+      <c r="W23" s="49"/>
+      <c r="X23" s="49"/>
+      <c r="Y23" s="49"/>
+      <c r="Z23" s="49"/>
+      <c r="AA23" s="49"/>
+      <c r="AB23" s="49"/>
+      <c r="AC23" s="49"/>
+      <c r="AD23" s="49"/>
+      <c r="AE23" s="49"/>
+      <c r="AF23" s="54"/>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A24" s="89" t="s">
+        <v>236</v>
+      </c>
+      <c r="B24" s="89" t="s">
+        <v>237</v>
+      </c>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="E24" s="53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F24" s="71">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G24" s="49">
+        <v>1</v>
+      </c>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="49"/>
+      <c r="U24" s="49"/>
+      <c r="V24" s="49"/>
+      <c r="W24" s="49"/>
+      <c r="X24" s="49"/>
+      <c r="Y24" s="49"/>
+      <c r="Z24" s="49"/>
+      <c r="AA24" s="49"/>
+      <c r="AB24" s="49"/>
+      <c r="AC24" s="49"/>
+      <c r="AD24" s="49"/>
+      <c r="AE24" s="49"/>
+      <c r="AF24" s="54"/>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A25" s="89" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="89" t="s">
+        <v>234</v>
+      </c>
+      <c r="C25" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="E25" s="53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F25" s="71">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49">
+        <v>1</v>
+      </c>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="49"/>
+      <c r="T25" s="49"/>
+      <c r="U25" s="49"/>
+      <c r="V25" s="49"/>
+      <c r="W25" s="49"/>
+      <c r="X25" s="49"/>
+      <c r="Y25" s="49"/>
+      <c r="Z25" s="49"/>
+      <c r="AA25" s="49"/>
+      <c r="AB25" s="49"/>
+      <c r="AC25" s="49"/>
+      <c r="AD25" s="49"/>
+      <c r="AE25" s="49"/>
+      <c r="AF25" s="54"/>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A26" s="89" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="89" t="s">
+        <v>235</v>
+      </c>
+      <c r="C26" s="68" t="s">
+        <v>162</v>
+      </c>
+      <c r="D26" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="E26" s="53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F26" s="71">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="57">
+        <v>0.25</v>
+      </c>
+      <c r="P26" s="57">
+        <v>0.18</v>
+      </c>
+      <c r="Q26" s="57">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R26" s="57">
+        <v>0.25</v>
+      </c>
+      <c r="S26" s="57">
+        <v>0.25</v>
+      </c>
+      <c r="T26" s="57"/>
+      <c r="U26" s="57"/>
+      <c r="V26" s="57"/>
+      <c r="W26" s="57"/>
+      <c r="X26" s="49"/>
+      <c r="Y26" s="49"/>
+      <c r="Z26" s="49"/>
+      <c r="AA26" s="49"/>
+      <c r="AB26" s="49"/>
+      <c r="AC26" s="49"/>
+      <c r="AD26" s="49"/>
+      <c r="AE26" s="49"/>
+      <c r="AF26" s="54"/>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A27" s="89" t="s">
+        <v>238</v>
+      </c>
+      <c r="B27" s="89" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="E27" s="53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F27" s="71">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G27" s="49">
+        <v>1</v>
+      </c>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="49"/>
+      <c r="T27" s="49"/>
+      <c r="U27" s="49"/>
+      <c r="V27" s="49"/>
+      <c r="W27" s="49"/>
+      <c r="X27" s="49"/>
+      <c r="Y27" s="49"/>
+      <c r="Z27" s="49"/>
+      <c r="AA27" s="49"/>
+      <c r="AB27" s="49"/>
+      <c r="AC27" s="49"/>
+      <c r="AD27" s="49"/>
+      <c r="AE27" s="49"/>
+      <c r="AF27" s="54"/>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A28" s="89" t="s">
+        <v>239</v>
+      </c>
+      <c r="B28" s="89" t="s">
+        <v>240</v>
+      </c>
+      <c r="C28" s="68" t="s">
+        <v>188</v>
+      </c>
+      <c r="D28" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="E28" s="53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F28" s="71">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="49">
+        <v>1</v>
+      </c>
+      <c r="O28" s="49"/>
+      <c r="P28" s="49"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="49"/>
+      <c r="T28" s="49"/>
+      <c r="U28" s="49"/>
+      <c r="V28" s="49"/>
+      <c r="W28" s="49"/>
+      <c r="X28" s="49"/>
+      <c r="Y28" s="49"/>
+      <c r="Z28" s="49"/>
+      <c r="AA28" s="49"/>
+      <c r="AB28" s="49"/>
+      <c r="AC28" s="49"/>
+      <c r="AD28" s="49"/>
+      <c r="AE28" s="49"/>
+      <c r="AF28" s="54"/>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A29" s="51" t="s">
+        <v>297</v>
+      </c>
+      <c r="B29" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="E29" s="53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F29" s="71">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="58">
+        <v>0.95</v>
+      </c>
+      <c r="L29" s="58"/>
+      <c r="M29" s="58"/>
+      <c r="N29" s="58"/>
+      <c r="O29" s="58"/>
+      <c r="P29" s="58"/>
+      <c r="Q29" s="58"/>
+      <c r="R29" s="58"/>
+      <c r="S29" s="58"/>
+      <c r="T29" s="58"/>
+      <c r="U29" s="58"/>
+      <c r="V29" s="58"/>
+      <c r="W29" s="58"/>
+      <c r="X29" s="58"/>
+      <c r="Y29" s="58"/>
+      <c r="Z29" s="58"/>
+      <c r="AA29" s="58"/>
+      <c r="AB29" s="58">
+        <v>0.05</v>
+      </c>
+      <c r="AC29" s="58"/>
+      <c r="AD29" s="49"/>
+      <c r="AE29" s="49"/>
+      <c r="AF29" s="54"/>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A30" s="51" t="s">
+        <v>298</v>
+      </c>
+      <c r="B30" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="E30" s="53">
+        <f t="shared" ref="E30" si="5">SUM(G30:BM30)</f>
+        <v>1</v>
+      </c>
+      <c r="F30" s="71">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="58">
+        <v>0.95</v>
+      </c>
+      <c r="L30" s="58"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="58"/>
+      <c r="O30" s="58"/>
+      <c r="P30" s="58"/>
+      <c r="Q30" s="58"/>
+      <c r="R30" s="58"/>
+      <c r="S30" s="58"/>
+      <c r="T30" s="58"/>
+      <c r="U30" s="58"/>
+      <c r="V30" s="58"/>
+      <c r="W30" s="58"/>
+      <c r="X30" s="58"/>
+      <c r="Y30" s="58"/>
+      <c r="Z30" s="58"/>
+      <c r="AA30" s="58"/>
+      <c r="AB30" s="58">
+        <v>0.05</v>
+      </c>
+      <c r="AC30" s="58"/>
+      <c r="AD30" s="49"/>
+      <c r="AE30" s="49"/>
+      <c r="AF30" s="54"/>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A31" s="51" t="s">
+        <v>294</v>
+      </c>
+      <c r="B31" s="89" t="s">
+        <v>241</v>
+      </c>
+      <c r="C31" s="68" t="s">
+        <v>186</v>
+      </c>
+      <c r="D31" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="E31" s="53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F31" s="71">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="49"/>
+      <c r="R31" s="49"/>
+      <c r="S31" s="49"/>
+      <c r="T31" s="49"/>
+      <c r="U31" s="49"/>
+      <c r="V31" s="49"/>
+      <c r="W31" s="49"/>
+      <c r="X31" s="49"/>
+      <c r="Y31" s="59"/>
+      <c r="Z31" s="59">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="59"/>
+      <c r="AB31" s="59"/>
+      <c r="AC31" s="59"/>
+      <c r="AD31" s="59"/>
+      <c r="AE31" s="59"/>
+      <c r="AF31" s="54"/>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A32" s="89" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="89" t="s">
+        <v>241</v>
+      </c>
+      <c r="C32" s="68" t="s">
+        <v>186</v>
+      </c>
+      <c r="D32" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="E32" s="53">
+        <f t="shared" ref="E32" si="6">SUM(G32:BM32)</f>
+        <v>1</v>
+      </c>
+      <c r="F32" s="71">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="49"/>
+      <c r="P32" s="49"/>
+      <c r="Q32" s="49"/>
+      <c r="R32" s="49"/>
+      <c r="S32" s="49"/>
+      <c r="T32" s="49"/>
+      <c r="U32" s="49"/>
+      <c r="V32" s="49"/>
+      <c r="W32" s="49"/>
+      <c r="X32" s="49"/>
+      <c r="Y32" s="59"/>
+      <c r="Z32" s="59">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="59"/>
+      <c r="AB32" s="59"/>
+      <c r="AC32" s="59"/>
+      <c r="AD32" s="59"/>
+      <c r="AE32" s="59"/>
+      <c r="AF32" s="54"/>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A33" s="90" t="s">
+        <v>276</v>
+      </c>
+      <c r="B33" s="68" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="E33" s="53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F33" s="71">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G33" s="49">
+        <v>1</v>
+      </c>
       <c r="H33" s="49"/>
       <c r="I33" s="49"/>
       <c r="J33" s="49"/>
@@ -10519,70 +13623,50 @@
       <c r="AA33" s="49"/>
       <c r="AB33" s="49"/>
       <c r="AC33" s="49"/>
-      <c r="AD33" s="49">
-        <v>1</v>
-      </c>
-      <c r="AE33" s="49">
-        <v>0</v>
-      </c>
+      <c r="AD33" s="49"/>
+      <c r="AE33" s="49"/>
       <c r="AF33" s="54"/>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A34" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="B34" s="51" t="s">
-        <v>251</v>
-      </c>
-      <c r="C34" s="69" t="s">
-        <v>142</v>
+      <c r="A34" s="90" t="s">
+        <v>303</v>
+      </c>
+      <c r="B34" s="68" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" s="68" t="s">
+        <v>40</v>
       </c>
       <c r="D34" s="68" t="s">
         <v>202</v>
       </c>
       <c r="E34" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E34" si="7">SUM(G34:BM34)</f>
         <v>1</v>
       </c>
       <c r="F34" s="71">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="G34" s="49"/>
+        <f t="shared" ref="F34" si="8">COUNTIF(G34:AE34,"&gt;0")</f>
+        <v>1</v>
+      </c>
+      <c r="G34" s="49">
+        <v>1</v>
+      </c>
       <c r="H34" s="49"/>
       <c r="I34" s="49"/>
       <c r="J34" s="49"/>
-      <c r="K34" s="60">
-        <v>0.2</v>
-      </c>
-      <c r="L34" s="60"/>
-      <c r="M34" s="60">
-        <v>0.24</v>
-      </c>
-      <c r="N34" s="60"/>
-      <c r="O34" s="60">
-        <v>0</v>
-      </c>
-      <c r="P34" s="60"/>
-      <c r="Q34" s="60">
-        <v>0.05</v>
-      </c>
-      <c r="R34" s="60">
-        <v>0.04</v>
-      </c>
-      <c r="S34" s="60">
-        <v>0.02</v>
-      </c>
-      <c r="T34" s="60">
-        <v>0.06</v>
-      </c>
-      <c r="U34" s="60">
-        <v>0.39</v>
-      </c>
-      <c r="V34" s="61">
-        <v>0</v>
-      </c>
-      <c r="W34" s="61"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="49"/>
+      <c r="P34" s="49"/>
+      <c r="Q34" s="49"/>
+      <c r="R34" s="49"/>
+      <c r="S34" s="49"/>
+      <c r="T34" s="49"/>
+      <c r="U34" s="49"/>
+      <c r="V34" s="49"/>
+      <c r="W34" s="49"/>
       <c r="X34" s="49"/>
       <c r="Y34" s="49"/>
       <c r="Z34" s="49"/>
@@ -10594,16 +13678,16 @@
       <c r="AF34" s="54"/>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A35" s="75" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35" s="75" t="s">
-        <v>252</v>
-      </c>
-      <c r="C35" s="76" t="s">
-        <v>149</v>
-      </c>
-      <c r="D35" s="77" t="s">
+      <c r="A35" s="51" t="s">
+        <v>293</v>
+      </c>
+      <c r="B35" s="68" t="s">
+        <v>190</v>
+      </c>
+      <c r="C35" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="68" t="s">
         <v>202</v>
       </c>
       <c r="E35" s="53">
@@ -10612,9 +13696,11 @@
       </c>
       <c r="F35" s="71">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G35" s="49"/>
+        <v>1</v>
+      </c>
+      <c r="G35" s="49">
+        <v>1</v>
+      </c>
       <c r="H35" s="49"/>
       <c r="I35" s="49"/>
       <c r="J35" s="49"/>
@@ -10631,15 +13717,9 @@
       <c r="U35" s="49"/>
       <c r="V35" s="49"/>
       <c r="W35" s="49"/>
-      <c r="X35" s="62">
-        <v>0.27</v>
-      </c>
-      <c r="Y35" s="62">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="Z35" s="62">
-        <v>0.44</v>
-      </c>
+      <c r="X35" s="49"/>
+      <c r="Y35" s="49"/>
+      <c r="Z35" s="49"/>
       <c r="AA35" s="49"/>
       <c r="AB35" s="49"/>
       <c r="AC35" s="49"/>
@@ -10648,26 +13728,33 @@
       <c r="AF35" s="54"/>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A36" s="75" t="s">
-        <v>66</v>
-      </c>
-      <c r="B36" s="75" t="s">
-        <v>252</v>
-      </c>
-      <c r="C36" s="76"/>
+      <c r="A36" s="89" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="89" t="s">
+        <v>242</v>
+      </c>
+      <c r="C36" s="68" t="s">
+        <v>43</v>
+      </c>
       <c r="D36" s="68" t="s">
         <v>202</v>
       </c>
-      <c r="E36" s="53"/>
+      <c r="E36" s="53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="F36" s="71">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G36" s="49"/>
       <c r="H36" s="49"/>
       <c r="I36" s="49"/>
       <c r="J36" s="49"/>
-      <c r="K36" s="49"/>
+      <c r="K36" s="49">
+        <v>1</v>
+      </c>
       <c r="L36" s="49"/>
       <c r="M36" s="49"/>
       <c r="N36" s="49"/>
@@ -10680,15 +13767,9 @@
       <c r="U36" s="49"/>
       <c r="V36" s="49"/>
       <c r="W36" s="49"/>
-      <c r="X36" s="62">
-        <v>0.27</v>
-      </c>
-      <c r="Y36" s="62">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="Z36" s="62">
-        <v>0.44</v>
-      </c>
+      <c r="X36" s="49"/>
+      <c r="Y36" s="49"/>
+      <c r="Z36" s="49"/>
       <c r="AA36" s="49"/>
       <c r="AB36" s="49"/>
       <c r="AC36" s="49"/>
@@ -10697,13 +13778,13 @@
       <c r="AF36" s="54"/>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A37" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" s="51" t="s">
-        <v>253</v>
-      </c>
-      <c r="C37" s="69" t="s">
+      <c r="A37" s="88" t="s">
+        <v>251</v>
+      </c>
+      <c r="B37" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="C37" s="68" t="s">
         <v>40</v>
       </c>
       <c r="D37" s="68" t="s">
@@ -10747,14 +13828,14 @@
       <c r="AF37" s="54"/>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A38" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38" s="51" t="s">
-        <v>254</v>
+      <c r="A38" s="88" t="s">
+        <v>251</v>
+      </c>
+      <c r="B38" s="69" t="s">
+        <v>211</v>
       </c>
       <c r="C38" s="69" t="s">
-        <v>40</v>
+        <v>212</v>
       </c>
       <c r="D38" s="68" t="s">
         <v>202</v>
@@ -10767,9 +13848,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G38" s="49">
-        <v>1</v>
-      </c>
+      <c r="G38" s="49"/>
       <c r="H38" s="49"/>
       <c r="I38" s="49"/>
       <c r="J38" s="49"/>
@@ -10792,19 +13871,23 @@
       <c r="AA38" s="49"/>
       <c r="AB38" s="49"/>
       <c r="AC38" s="49"/>
-      <c r="AD38" s="49"/>
-      <c r="AE38" s="49"/>
+      <c r="AD38" s="49">
+        <v>1</v>
+      </c>
+      <c r="AE38" s="49">
+        <v>0</v>
+      </c>
       <c r="AF38" s="54"/>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A39" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="51" t="s">
-        <v>255</v>
+        <v>295</v>
+      </c>
+      <c r="B39" s="89" t="s">
+        <v>243</v>
       </c>
       <c r="C39" s="69" t="s">
-        <v>40</v>
+        <v>142</v>
       </c>
       <c r="D39" s="68" t="s">
         <v>202</v>
@@ -10815,27 +13898,43 @@
       </c>
       <c r="F39" s="71">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G39" s="49">
-        <v>1</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="G39" s="49"/>
       <c r="H39" s="49"/>
       <c r="I39" s="49"/>
       <c r="J39" s="49"/>
-      <c r="K39" s="49"/>
-      <c r="L39" s="49"/>
-      <c r="M39" s="49"/>
-      <c r="N39" s="49"/>
-      <c r="O39" s="49"/>
-      <c r="P39" s="49"/>
-      <c r="Q39" s="49"/>
-      <c r="R39" s="49"/>
-      <c r="S39" s="49"/>
-      <c r="T39" s="49"/>
-      <c r="U39" s="49"/>
-      <c r="V39" s="49"/>
-      <c r="W39" s="49"/>
+      <c r="K39" s="60">
+        <v>0.2</v>
+      </c>
+      <c r="L39" s="60"/>
+      <c r="M39" s="60">
+        <v>0.24</v>
+      </c>
+      <c r="N39" s="60"/>
+      <c r="O39" s="60">
+        <v>0</v>
+      </c>
+      <c r="P39" s="60"/>
+      <c r="Q39" s="60">
+        <v>0.05</v>
+      </c>
+      <c r="R39" s="60">
+        <v>0.04</v>
+      </c>
+      <c r="S39" s="60">
+        <v>0.02</v>
+      </c>
+      <c r="T39" s="60">
+        <v>0.06</v>
+      </c>
+      <c r="U39" s="60">
+        <v>0.39</v>
+      </c>
+      <c r="V39" s="61">
+        <v>0</v>
+      </c>
+      <c r="W39" s="61"/>
       <c r="X39" s="49"/>
       <c r="Y39" s="49"/>
       <c r="Z39" s="49"/>
@@ -10847,150 +13946,193 @@
       <c r="AF39" s="54"/>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A40" s="75" t="s">
-        <v>58</v>
-      </c>
-      <c r="B40" s="75" t="s">
-        <v>256</v>
-      </c>
-      <c r="C40" s="76" t="s">
-        <v>88</v>
-      </c>
-      <c r="D40" s="77" t="s">
+      <c r="A40" s="85" t="s">
+        <v>296</v>
+      </c>
+      <c r="B40" s="89" t="s">
+        <v>243</v>
+      </c>
+      <c r="C40" s="69" t="s">
+        <v>142</v>
+      </c>
+      <c r="D40" s="68" t="s">
         <v>202</v>
       </c>
       <c r="E40" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E40:E41" si="9">SUM(G40:BM40)</f>
         <v>1</v>
       </c>
       <c r="F40" s="71">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G40" s="49"/>
       <c r="H40" s="49"/>
       <c r="I40" s="49"/>
       <c r="J40" s="49"/>
-      <c r="K40" s="58">
+      <c r="K40" s="60">
+        <v>0.2</v>
+      </c>
+      <c r="L40" s="60"/>
+      <c r="M40" s="60">
+        <v>0.24</v>
+      </c>
+      <c r="N40" s="60"/>
+      <c r="O40" s="60">
         <v>0</v>
       </c>
-      <c r="L40" s="58"/>
-      <c r="M40" s="58"/>
-      <c r="N40" s="58"/>
-      <c r="O40" s="58"/>
-      <c r="P40" s="58"/>
-      <c r="Q40" s="58"/>
-      <c r="R40" s="58"/>
-      <c r="S40" s="58"/>
-      <c r="T40" s="58"/>
-      <c r="U40" s="58"/>
-      <c r="V40" s="58"/>
-      <c r="W40" s="58"/>
-      <c r="X40" s="58">
+      <c r="P40" s="60"/>
+      <c r="Q40" s="60">
+        <v>0.05</v>
+      </c>
+      <c r="R40" s="60">
+        <v>0.04</v>
+      </c>
+      <c r="S40" s="60">
         <v>0.02</v>
       </c>
-      <c r="Y40" s="58">
-        <v>0.09</v>
-      </c>
-      <c r="Z40" s="58"/>
-      <c r="AA40" s="58"/>
-      <c r="AB40" s="58">
-        <v>0.89</v>
-      </c>
-      <c r="AC40" s="58"/>
+      <c r="T40" s="60">
+        <v>0.06</v>
+      </c>
+      <c r="U40" s="60">
+        <v>0.39</v>
+      </c>
+      <c r="V40" s="61">
+        <v>0</v>
+      </c>
+      <c r="W40" s="61"/>
+      <c r="X40" s="49"/>
+      <c r="Y40" s="49"/>
+      <c r="Z40" s="49"/>
+      <c r="AA40" s="49"/>
+      <c r="AB40" s="49"/>
+      <c r="AC40" s="49"/>
       <c r="AD40" s="49"/>
       <c r="AE40" s="49"/>
       <c r="AF40" s="54"/>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A41" s="75" t="s">
-        <v>86</v>
-      </c>
-      <c r="B41" s="75" t="s">
-        <v>256</v>
-      </c>
-      <c r="C41" s="76"/>
+      <c r="A41" s="85" t="s">
+        <v>299</v>
+      </c>
+      <c r="B41" s="89" t="s">
+        <v>243</v>
+      </c>
+      <c r="C41" s="69" t="s">
+        <v>142</v>
+      </c>
       <c r="D41" s="68" t="s">
         <v>202</v>
       </c>
-      <c r="E41" s="53"/>
+      <c r="E41" s="53">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
       <c r="F41" s="71">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G41" s="49"/>
       <c r="H41" s="49"/>
       <c r="I41" s="49"/>
       <c r="J41" s="49"/>
-      <c r="K41" s="58"/>
-      <c r="L41" s="58"/>
-      <c r="M41" s="58"/>
-      <c r="N41" s="58"/>
-      <c r="O41" s="58"/>
-      <c r="P41" s="58"/>
-      <c r="Q41" s="58"/>
-      <c r="R41" s="58"/>
-      <c r="S41" s="58"/>
-      <c r="T41" s="58"/>
-      <c r="U41" s="58"/>
-      <c r="V41" s="58"/>
-      <c r="W41" s="58"/>
-      <c r="X41" s="58">
+      <c r="K41" s="60">
+        <v>0.2</v>
+      </c>
+      <c r="L41" s="60"/>
+      <c r="M41" s="60">
+        <v>0.24</v>
+      </c>
+      <c r="N41" s="60"/>
+      <c r="O41" s="60">
+        <v>0</v>
+      </c>
+      <c r="P41" s="60"/>
+      <c r="Q41" s="60">
+        <v>0.05</v>
+      </c>
+      <c r="R41" s="60">
+        <v>0.04</v>
+      </c>
+      <c r="S41" s="60">
         <v>0.02</v>
       </c>
-      <c r="Y41" s="58">
-        <v>0.09</v>
-      </c>
-      <c r="Z41" s="58"/>
-      <c r="AA41" s="58"/>
-      <c r="AB41" s="58">
-        <v>0.89</v>
-      </c>
-      <c r="AC41" s="58"/>
+      <c r="T41" s="60">
+        <v>0.06</v>
+      </c>
+      <c r="U41" s="60">
+        <v>0.39</v>
+      </c>
+      <c r="V41" s="61">
+        <v>0</v>
+      </c>
+      <c r="W41" s="61"/>
+      <c r="X41" s="49"/>
+      <c r="Y41" s="49"/>
+      <c r="Z41" s="49"/>
+      <c r="AA41" s="49"/>
+      <c r="AB41" s="49"/>
+      <c r="AC41" s="49"/>
       <c r="AD41" s="49"/>
       <c r="AE41" s="49"/>
       <c r="AF41" s="54"/>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A42" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="B42" s="51" t="s">
-        <v>257</v>
+      <c r="A42" s="85" t="s">
+        <v>300</v>
+      </c>
+      <c r="B42" s="89" t="s">
+        <v>243</v>
       </c>
       <c r="C42" s="69" t="s">
-        <v>219</v>
+        <v>142</v>
       </c>
       <c r="D42" s="68" t="s">
         <v>202</v>
       </c>
       <c r="E42" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E42" si="10">SUM(G42:BM42)</f>
         <v>1</v>
       </c>
       <c r="F42" s="71">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" ref="F42" si="11">COUNTIF(G42:AE42,"&gt;0")</f>
+        <v>7</v>
       </c>
       <c r="G42" s="49"/>
       <c r="H42" s="49"/>
       <c r="I42" s="49"/>
       <c r="J42" s="49"/>
-      <c r="K42" s="49"/>
-      <c r="L42" s="49"/>
-      <c r="M42" s="49"/>
-      <c r="N42" s="49">
-        <v>1</v>
-      </c>
-      <c r="O42" s="49"/>
-      <c r="P42" s="49"/>
-      <c r="Q42" s="49"/>
-      <c r="R42" s="49"/>
-      <c r="S42" s="49"/>
-      <c r="T42" s="49"/>
-      <c r="U42" s="49"/>
-      <c r="V42" s="49"/>
-      <c r="W42" s="49"/>
+      <c r="K42" s="60">
+        <v>0.2</v>
+      </c>
+      <c r="L42" s="60"/>
+      <c r="M42" s="60">
+        <v>0.24</v>
+      </c>
+      <c r="N42" s="60"/>
+      <c r="O42" s="60">
+        <v>0</v>
+      </c>
+      <c r="P42" s="60"/>
+      <c r="Q42" s="60">
+        <v>0.05</v>
+      </c>
+      <c r="R42" s="60">
+        <v>0.04</v>
+      </c>
+      <c r="S42" s="60">
+        <v>0.02</v>
+      </c>
+      <c r="T42" s="60">
+        <v>0.06</v>
+      </c>
+      <c r="U42" s="60">
+        <v>0.39</v>
+      </c>
+      <c r="V42" s="61">
+        <v>0</v>
+      </c>
+      <c r="W42" s="61"/>
       <c r="X42" s="49"/>
       <c r="Y42" s="49"/>
       <c r="Z42" s="49"/>
@@ -11002,14 +14144,14 @@
       <c r="AF42" s="54"/>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A43" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" s="51" t="s">
-        <v>258</v>
-      </c>
-      <c r="C43" s="68" t="s">
-        <v>212</v>
+      <c r="A43" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="89" t="s">
+        <v>244</v>
+      </c>
+      <c r="C43" s="69" t="s">
+        <v>149</v>
       </c>
       <c r="D43" s="68" t="s">
         <v>202</v>
@@ -11020,13 +14162,11 @@
       </c>
       <c r="F43" s="71">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G43" s="49"/>
       <c r="H43" s="49"/>
-      <c r="I43" s="49">
-        <v>1</v>
-      </c>
+      <c r="I43" s="49"/>
       <c r="J43" s="49"/>
       <c r="K43" s="49"/>
       <c r="L43" s="49"/>
@@ -11041,9 +14181,15 @@
       <c r="U43" s="49"/>
       <c r="V43" s="49"/>
       <c r="W43" s="49"/>
-      <c r="X43" s="49"/>
-      <c r="Y43" s="49"/>
-      <c r="Z43" s="49"/>
+      <c r="X43" s="62">
+        <v>0.27</v>
+      </c>
+      <c r="Y43" s="62">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="Z43" s="62">
+        <v>0.44</v>
+      </c>
       <c r="AA43" s="49"/>
       <c r="AB43" s="49"/>
       <c r="AC43" s="49"/>
@@ -11051,27 +14197,3317 @@
       <c r="AE43" s="49"/>
       <c r="AF43" s="54"/>
     </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A44" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" s="89" t="s">
+        <v>244</v>
+      </c>
+      <c r="C44" s="69"/>
+      <c r="D44" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="E44" s="53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F44" s="71">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="49"/>
+      <c r="K44" s="49"/>
+      <c r="L44" s="49"/>
+      <c r="M44" s="49"/>
+      <c r="N44" s="49"/>
+      <c r="O44" s="49"/>
+      <c r="P44" s="49"/>
+      <c r="Q44" s="49"/>
+      <c r="R44" s="49"/>
+      <c r="S44" s="49"/>
+      <c r="T44" s="49"/>
+      <c r="U44" s="49"/>
+      <c r="V44" s="49"/>
+      <c r="W44" s="49"/>
+      <c r="X44" s="62">
+        <v>0.27</v>
+      </c>
+      <c r="Y44" s="62">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="Z44" s="62">
+        <v>0.44</v>
+      </c>
+      <c r="AA44" s="49"/>
+      <c r="AB44" s="49"/>
+      <c r="AC44" s="49"/>
+      <c r="AD44" s="49"/>
+      <c r="AE44" s="49"/>
+      <c r="AF44" s="54"/>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A45" s="89" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="89" t="s">
+        <v>245</v>
+      </c>
+      <c r="C45" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="E45" s="53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F45" s="71">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G45" s="49">
+        <v>1</v>
+      </c>
+      <c r="H45" s="49"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="49"/>
+      <c r="K45" s="49"/>
+      <c r="L45" s="49"/>
+      <c r="M45" s="49"/>
+      <c r="N45" s="49"/>
+      <c r="O45" s="49"/>
+      <c r="P45" s="49"/>
+      <c r="Q45" s="49"/>
+      <c r="R45" s="49"/>
+      <c r="S45" s="49"/>
+      <c r="T45" s="49"/>
+      <c r="U45" s="49"/>
+      <c r="V45" s="49"/>
+      <c r="W45" s="49"/>
+      <c r="X45" s="49"/>
+      <c r="Y45" s="49"/>
+      <c r="Z45" s="49"/>
+      <c r="AA45" s="49"/>
+      <c r="AB45" s="49"/>
+      <c r="AC45" s="49"/>
+      <c r="AD45" s="49"/>
+      <c r="AE45" s="49"/>
+      <c r="AF45" s="54"/>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A46" s="89" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="89" t="s">
+        <v>246</v>
+      </c>
+      <c r="C46" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="E46" s="53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F46" s="71">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G46" s="49">
+        <v>1</v>
+      </c>
+      <c r="H46" s="49"/>
+      <c r="I46" s="49"/>
+      <c r="J46" s="49"/>
+      <c r="K46" s="49"/>
+      <c r="L46" s="49"/>
+      <c r="M46" s="49"/>
+      <c r="N46" s="49"/>
+      <c r="O46" s="49"/>
+      <c r="P46" s="49"/>
+      <c r="Q46" s="49"/>
+      <c r="R46" s="49"/>
+      <c r="S46" s="49"/>
+      <c r="T46" s="49"/>
+      <c r="U46" s="49"/>
+      <c r="V46" s="49"/>
+      <c r="W46" s="49"/>
+      <c r="X46" s="49"/>
+      <c r="Y46" s="49"/>
+      <c r="Z46" s="49"/>
+      <c r="AA46" s="49"/>
+      <c r="AB46" s="49"/>
+      <c r="AC46" s="49"/>
+      <c r="AD46" s="49"/>
+      <c r="AE46" s="49"/>
+      <c r="AF46" s="54"/>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A47" s="89" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="89" t="s">
+        <v>247</v>
+      </c>
+      <c r="C47" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="E47" s="53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F47" s="71">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G47" s="49">
+        <v>1</v>
+      </c>
+      <c r="H47" s="49"/>
+      <c r="I47" s="49"/>
+      <c r="J47" s="49"/>
+      <c r="K47" s="49"/>
+      <c r="L47" s="49"/>
+      <c r="M47" s="49"/>
+      <c r="N47" s="49"/>
+      <c r="O47" s="49"/>
+      <c r="P47" s="49"/>
+      <c r="Q47" s="49"/>
+      <c r="R47" s="49"/>
+      <c r="S47" s="49"/>
+      <c r="T47" s="49"/>
+      <c r="U47" s="49"/>
+      <c r="V47" s="49"/>
+      <c r="W47" s="49"/>
+      <c r="X47" s="49"/>
+      <c r="Y47" s="49"/>
+      <c r="Z47" s="49"/>
+      <c r="AA47" s="49"/>
+      <c r="AB47" s="49"/>
+      <c r="AC47" s="49"/>
+      <c r="AD47" s="49"/>
+      <c r="AE47" s="49"/>
+      <c r="AF47" s="54"/>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A48" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="89" t="s">
+        <v>248</v>
+      </c>
+      <c r="C48" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="D48" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="E48" s="53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F48" s="71">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G48" s="49"/>
+      <c r="H48" s="49"/>
+      <c r="I48" s="49"/>
+      <c r="J48" s="49"/>
+      <c r="K48" s="58">
+        <v>0</v>
+      </c>
+      <c r="L48" s="58"/>
+      <c r="M48" s="58"/>
+      <c r="N48" s="58"/>
+      <c r="O48" s="58"/>
+      <c r="P48" s="58"/>
+      <c r="Q48" s="58"/>
+      <c r="R48" s="58"/>
+      <c r="S48" s="58"/>
+      <c r="T48" s="58"/>
+      <c r="U48" s="58"/>
+      <c r="V48" s="58"/>
+      <c r="W48" s="58"/>
+      <c r="X48" s="58">
+        <v>0.02</v>
+      </c>
+      <c r="Y48" s="58">
+        <v>0.09</v>
+      </c>
+      <c r="Z48" s="58"/>
+      <c r="AA48" s="58"/>
+      <c r="AB48" s="58">
+        <v>0.89</v>
+      </c>
+      <c r="AC48" s="58"/>
+      <c r="AD48" s="49"/>
+      <c r="AE48" s="49"/>
+      <c r="AF48" s="54"/>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A49" s="89" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" s="89" t="s">
+        <v>248</v>
+      </c>
+      <c r="C49" s="69"/>
+      <c r="D49" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="E49" s="53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F49" s="71">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G49" s="49"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="49"/>
+      <c r="J49" s="49"/>
+      <c r="K49" s="58"/>
+      <c r="L49" s="58"/>
+      <c r="M49" s="58"/>
+      <c r="N49" s="58"/>
+      <c r="O49" s="58"/>
+      <c r="P49" s="58"/>
+      <c r="Q49" s="58"/>
+      <c r="R49" s="58"/>
+      <c r="S49" s="58"/>
+      <c r="T49" s="58"/>
+      <c r="U49" s="58"/>
+      <c r="V49" s="58"/>
+      <c r="W49" s="58"/>
+      <c r="X49" s="58">
+        <v>0.02</v>
+      </c>
+      <c r="Y49" s="58">
+        <v>0.09</v>
+      </c>
+      <c r="Z49" s="58"/>
+      <c r="AA49" s="58"/>
+      <c r="AB49" s="58">
+        <v>0.89</v>
+      </c>
+      <c r="AC49" s="58"/>
+      <c r="AD49" s="49"/>
+      <c r="AE49" s="49"/>
+      <c r="AF49" s="54"/>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A50" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50" s="89" t="s">
+        <v>249</v>
+      </c>
+      <c r="C50" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="D50" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="E50" s="53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F50" s="71">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G50" s="49"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="49"/>
+      <c r="J50" s="49"/>
+      <c r="K50" s="49"/>
+      <c r="L50" s="49"/>
+      <c r="M50" s="49"/>
+      <c r="N50" s="49">
+        <v>1</v>
+      </c>
+      <c r="O50" s="49"/>
+      <c r="P50" s="49"/>
+      <c r="Q50" s="49"/>
+      <c r="R50" s="49"/>
+      <c r="S50" s="49"/>
+      <c r="T50" s="49"/>
+      <c r="U50" s="49"/>
+      <c r="V50" s="49"/>
+      <c r="W50" s="49"/>
+      <c r="X50" s="49"/>
+      <c r="Y50" s="49"/>
+      <c r="Z50" s="49"/>
+      <c r="AA50" s="49"/>
+      <c r="AB50" s="49"/>
+      <c r="AC50" s="49"/>
+      <c r="AD50" s="49"/>
+      <c r="AE50" s="49"/>
+      <c r="AF50" s="54"/>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A51" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" s="89" t="s">
+        <v>250</v>
+      </c>
+      <c r="C51" s="68" t="s">
+        <v>206</v>
+      </c>
+      <c r="D51" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="E51" s="53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F51" s="71">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G51" s="49"/>
+      <c r="H51" s="49"/>
+      <c r="I51" s="49">
+        <v>1</v>
+      </c>
+      <c r="J51" s="49"/>
+      <c r="K51" s="49"/>
+      <c r="L51" s="49"/>
+      <c r="M51" s="49"/>
+      <c r="N51" s="49"/>
+      <c r="O51" s="49"/>
+      <c r="P51" s="49"/>
+      <c r="Q51" s="49"/>
+      <c r="R51" s="49"/>
+      <c r="S51" s="49"/>
+      <c r="T51" s="49"/>
+      <c r="U51" s="49"/>
+      <c r="V51" s="49"/>
+      <c r="W51" s="49"/>
+      <c r="X51" s="49"/>
+      <c r="Y51" s="49"/>
+      <c r="Z51" s="49"/>
+      <c r="AA51" s="49"/>
+      <c r="AB51" s="49"/>
+      <c r="AC51" s="49"/>
+      <c r="AD51" s="49"/>
+      <c r="AE51" s="49"/>
+      <c r="AF51" s="54"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="E5:E43">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="notEqual">
+  <conditionalFormatting sqref="E5:E9 E33 E43:E51 E31 E12:E29 E35:E39">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5:F43">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="greaterThan">
+  <conditionalFormatting sqref="F5:F9 F33 F43:F51 F31 F12:F29 F35:F39">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F40">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F41">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
+  <conditionalFormatting sqref="F34">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:AH51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E35" workbookViewId="0">
+      <selection activeCell="O51" sqref="O51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="40.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.36328125" style="108" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A1" s="92"/>
+      <c r="B1" s="92" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" s="93">
+        <v>43850</v>
+      </c>
+      <c r="D1" s="92"/>
+      <c r="E1" s="94" t="s">
+        <v>196</v>
+      </c>
+      <c r="F1" s="92"/>
+      <c r="G1" s="95" t="s">
+        <v>271</v>
+      </c>
+      <c r="H1" s="95" t="s">
+        <v>205</v>
+      </c>
+      <c r="I1" s="95" t="s">
+        <v>205</v>
+      </c>
+      <c r="J1" s="95" t="s">
+        <v>205</v>
+      </c>
+      <c r="K1" s="95" t="s">
+        <v>282</v>
+      </c>
+      <c r="L1" s="95" t="s">
+        <v>272</v>
+      </c>
+      <c r="M1" s="95" t="s">
+        <v>283</v>
+      </c>
+      <c r="N1" s="95" t="s">
+        <v>273</v>
+      </c>
+      <c r="O1" s="95" t="s">
+        <v>284</v>
+      </c>
+      <c r="P1" s="95" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q1" s="95" t="s">
+        <v>285</v>
+      </c>
+      <c r="R1" s="95" t="s">
+        <v>286</v>
+      </c>
+      <c r="S1" s="95" t="s">
+        <v>282</v>
+      </c>
+      <c r="T1" s="95" t="s">
+        <v>287</v>
+      </c>
+      <c r="U1" s="95" t="s">
+        <v>274</v>
+      </c>
+      <c r="V1" s="95" t="s">
+        <v>283</v>
+      </c>
+      <c r="W1" s="95" t="s">
+        <v>285</v>
+      </c>
+      <c r="X1" s="95" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y1" s="95" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z1" s="95" t="s">
+        <v>275</v>
+      </c>
+      <c r="AA1" s="95" t="s">
+        <v>290</v>
+      </c>
+      <c r="AB1" s="95" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC1" s="95" t="s">
+        <v>205</v>
+      </c>
+      <c r="AD1" s="95" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE1" s="87" t="s">
+        <v>291</v>
+      </c>
+      <c r="AF1" s="96"/>
+      <c r="AG1" s="96"/>
+      <c r="AH1" s="96"/>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="99" t="s">
+        <v>214</v>
+      </c>
+      <c r="F2" s="99"/>
+      <c r="G2" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="95" t="s">
+        <v>252</v>
+      </c>
+      <c r="I2" s="95" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="95" t="s">
+        <v>253</v>
+      </c>
+      <c r="K2" s="95" t="s">
+        <v>254</v>
+      </c>
+      <c r="L2" s="95" t="s">
+        <v>256</v>
+      </c>
+      <c r="M2" s="95" t="s">
+        <v>255</v>
+      </c>
+      <c r="N2" s="95" t="s">
+        <v>258</v>
+      </c>
+      <c r="O2" s="95" t="s">
+        <v>259</v>
+      </c>
+      <c r="P2" s="95" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q2" s="95" t="s">
+        <v>265</v>
+      </c>
+      <c r="R2" s="95" t="s">
+        <v>260</v>
+      </c>
+      <c r="S2" s="95" t="s">
+        <v>261</v>
+      </c>
+      <c r="T2" s="95" t="s">
+        <v>262</v>
+      </c>
+      <c r="U2" s="95" t="s">
+        <v>263</v>
+      </c>
+      <c r="V2" s="95" t="s">
+        <v>264</v>
+      </c>
+      <c r="W2" s="95" t="s">
+        <v>277</v>
+      </c>
+      <c r="X2" s="95" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y2" s="95" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z2" s="95" t="s">
+        <v>267</v>
+      </c>
+      <c r="AA2" s="95" t="s">
+        <v>268</v>
+      </c>
+      <c r="AB2" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC2" s="95" t="s">
+        <v>269</v>
+      </c>
+      <c r="AD2" s="95" t="s">
+        <v>270</v>
+      </c>
+      <c r="AE2" s="95" t="s">
+        <v>280</v>
+      </c>
+      <c r="AF2" s="96"/>
+      <c r="AG2" s="96"/>
+      <c r="AH2" s="96"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A3" s="100" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" s="101" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" s="101" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" s="103" t="s">
+        <v>201</v>
+      </c>
+      <c r="E3" s="102">
+        <v>48</v>
+      </c>
+      <c r="F3" s="103" t="s">
+        <v>215</v>
+      </c>
+      <c r="G3" s="104">
+        <v>14.89</v>
+      </c>
+      <c r="H3" s="104">
+        <v>2.11</v>
+      </c>
+      <c r="I3" s="104">
+        <v>2</v>
+      </c>
+      <c r="J3" s="104">
+        <v>2</v>
+      </c>
+      <c r="K3" s="104">
+        <v>6.7</v>
+      </c>
+      <c r="L3" s="104">
+        <v>1.33</v>
+      </c>
+      <c r="M3" s="104">
+        <v>1.63</v>
+      </c>
+      <c r="N3" s="104">
+        <v>2</v>
+      </c>
+      <c r="O3" s="104">
+        <v>0.4</v>
+      </c>
+      <c r="P3" s="104">
+        <v>0.18</v>
+      </c>
+      <c r="Q3" s="104">
+        <v>1.01</v>
+      </c>
+      <c r="R3" s="104">
+        <v>0.52</v>
+      </c>
+      <c r="S3" s="104">
+        <v>0.33</v>
+      </c>
+      <c r="T3" s="104">
+        <v>0.34</v>
+      </c>
+      <c r="U3" s="104">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="V3" s="104">
+        <v>1.18</v>
+      </c>
+      <c r="W3" s="104">
+        <v>0.27</v>
+      </c>
+      <c r="X3" s="104">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="Y3" s="104">
+        <v>0.76</v>
+      </c>
+      <c r="Z3" s="104">
+        <v>2.88</v>
+      </c>
+      <c r="AA3" s="104">
+        <v>0.9</v>
+      </c>
+      <c r="AB3" s="104">
+        <v>1.88</v>
+      </c>
+      <c r="AC3" s="104">
+        <v>0.1</v>
+      </c>
+      <c r="AD3" s="104">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="104">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="105"/>
+      <c r="AG3" s="105"/>
+      <c r="AH3" s="105"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A4" s="117" t="s">
+        <v>276</v>
+      </c>
+      <c r="B4" s="91" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="91" t="s">
+        <v>322</v>
+      </c>
+      <c r="D4" s="109" t="s">
+        <v>304</v>
+      </c>
+      <c r="E4" s="106">
+        <v>1</v>
+      </c>
+      <c r="F4" s="107">
+        <v>1</v>
+      </c>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="91"/>
+      <c r="P4" s="91"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="91"/>
+      <c r="S4" s="91"/>
+      <c r="T4" s="91"/>
+      <c r="U4" s="91"/>
+      <c r="V4" s="91"/>
+      <c r="W4" s="91"/>
+      <c r="X4" s="91"/>
+      <c r="Y4" s="91"/>
+      <c r="Z4" s="91"/>
+      <c r="AA4" s="91"/>
+      <c r="AB4" s="91"/>
+      <c r="AC4" s="91"/>
+      <c r="AD4" s="91"/>
+      <c r="AE4" s="91">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="91"/>
+      <c r="AG4" s="91"/>
+      <c r="AH4" s="91"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A5" s="91" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="91" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="91" t="s">
+        <v>323</v>
+      </c>
+      <c r="D5" s="109" t="s">
+        <v>305</v>
+      </c>
+      <c r="E5" s="106">
+        <v>1</v>
+      </c>
+      <c r="F5" s="92">
+        <v>2</v>
+      </c>
+      <c r="G5" s="91">
+        <v>0.77</v>
+      </c>
+      <c r="H5" s="91">
+        <v>0.23</v>
+      </c>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="91"/>
+      <c r="T5" s="91"/>
+      <c r="U5" s="91"/>
+      <c r="V5" s="91"/>
+      <c r="W5" s="91"/>
+      <c r="X5" s="91"/>
+      <c r="Y5" s="91"/>
+      <c r="Z5" s="91"/>
+      <c r="AA5" s="91"/>
+      <c r="AB5" s="91"/>
+      <c r="AC5" s="91"/>
+      <c r="AD5" s="91"/>
+      <c r="AE5" s="91"/>
+      <c r="AF5" s="91"/>
+      <c r="AG5" s="91"/>
+      <c r="AH5" s="91"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A6" s="91" t="s">
+        <v>292</v>
+      </c>
+      <c r="B6" s="91" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="91" t="s">
+        <v>324</v>
+      </c>
+      <c r="D6" s="109" t="s">
+        <v>306</v>
+      </c>
+      <c r="E6" s="106">
+        <v>1</v>
+      </c>
+      <c r="F6" s="92">
+        <v>2</v>
+      </c>
+      <c r="G6" s="91">
+        <v>0.38</v>
+      </c>
+      <c r="H6" s="91">
+        <v>0.62</v>
+      </c>
+      <c r="I6" s="91"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="91"/>
+      <c r="O6" s="91"/>
+      <c r="P6" s="91"/>
+      <c r="Q6" s="91"/>
+      <c r="R6" s="91"/>
+      <c r="S6" s="91"/>
+      <c r="T6" s="91"/>
+      <c r="U6" s="91"/>
+      <c r="V6" s="91"/>
+      <c r="W6" s="91"/>
+      <c r="X6" s="91"/>
+      <c r="Y6" s="91"/>
+      <c r="Z6" s="91"/>
+      <c r="AA6" s="91"/>
+      <c r="AB6" s="91"/>
+      <c r="AC6" s="91"/>
+      <c r="AD6" s="91"/>
+      <c r="AE6" s="91"/>
+      <c r="AF6" s="91"/>
+      <c r="AG6" s="91"/>
+      <c r="AH6" s="91"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A7" s="91" t="s">
+        <v>278</v>
+      </c>
+      <c r="B7" s="109" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" s="91" t="s">
+        <v>325</v>
+      </c>
+      <c r="D7" s="109" t="s">
+        <v>307</v>
+      </c>
+      <c r="E7" s="106">
+        <v>1</v>
+      </c>
+      <c r="F7" s="107">
+        <v>1</v>
+      </c>
+      <c r="G7" s="91">
+        <v>1</v>
+      </c>
+      <c r="H7" s="91"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="91"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="91"/>
+      <c r="P7" s="91"/>
+      <c r="Q7" s="91"/>
+      <c r="R7" s="91"/>
+      <c r="S7" s="91"/>
+      <c r="T7" s="91"/>
+      <c r="U7" s="91"/>
+      <c r="V7" s="91"/>
+      <c r="W7" s="91"/>
+      <c r="X7" s="91"/>
+      <c r="Y7" s="91"/>
+      <c r="Z7" s="91"/>
+      <c r="AA7" s="91"/>
+      <c r="AB7" s="91"/>
+      <c r="AC7" s="91"/>
+      <c r="AD7" s="91"/>
+      <c r="AE7" s="91"/>
+      <c r="AF7" s="91"/>
+      <c r="AG7" s="91"/>
+      <c r="AH7" s="91"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A8" s="91" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="91" t="s">
+        <v>220</v>
+      </c>
+      <c r="C8" s="91" t="s">
+        <v>326</v>
+      </c>
+      <c r="D8" s="109" t="s">
+        <v>308</v>
+      </c>
+      <c r="E8" s="106">
+        <v>1</v>
+      </c>
+      <c r="F8" s="107">
+        <v>1</v>
+      </c>
+      <c r="G8" s="91"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="91">
+        <v>1</v>
+      </c>
+      <c r="J8" s="91"/>
+      <c r="K8" s="91"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="91"/>
+      <c r="P8" s="91"/>
+      <c r="Q8" s="91"/>
+      <c r="R8" s="91"/>
+      <c r="S8" s="91"/>
+      <c r="T8" s="91"/>
+      <c r="U8" s="91"/>
+      <c r="V8" s="91"/>
+      <c r="W8" s="91"/>
+      <c r="X8" s="91"/>
+      <c r="Y8" s="91"/>
+      <c r="Z8" s="91"/>
+      <c r="AA8" s="91"/>
+      <c r="AB8" s="91"/>
+      <c r="AC8" s="91"/>
+      <c r="AD8" s="91"/>
+      <c r="AE8" s="91"/>
+      <c r="AF8" s="91"/>
+      <c r="AG8" s="91"/>
+      <c r="AH8" s="91"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A9" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="91" t="s">
+        <v>221</v>
+      </c>
+      <c r="C9" s="91" t="s">
+        <v>327</v>
+      </c>
+      <c r="D9" s="109" t="s">
+        <v>307</v>
+      </c>
+      <c r="E9" s="106">
+        <v>1</v>
+      </c>
+      <c r="F9" s="107">
+        <v>1</v>
+      </c>
+      <c r="G9" s="91">
+        <v>1</v>
+      </c>
+      <c r="H9" s="91"/>
+      <c r="I9" s="91"/>
+      <c r="J9" s="91"/>
+      <c r="K9" s="91"/>
+      <c r="L9" s="91"/>
+      <c r="M9" s="91"/>
+      <c r="N9" s="91"/>
+      <c r="O9" s="91"/>
+      <c r="P9" s="91"/>
+      <c r="Q9" s="91"/>
+      <c r="R9" s="91"/>
+      <c r="S9" s="91"/>
+      <c r="T9" s="91"/>
+      <c r="U9" s="91"/>
+      <c r="V9" s="91"/>
+      <c r="W9" s="91"/>
+      <c r="X9" s="91"/>
+      <c r="Y9" s="91"/>
+      <c r="Z9" s="91"/>
+      <c r="AA9" s="91"/>
+      <c r="AB9" s="91"/>
+      <c r="AC9" s="91"/>
+      <c r="AD9" s="91"/>
+      <c r="AE9" s="91"/>
+      <c r="AF9" s="91"/>
+      <c r="AG9" s="91"/>
+      <c r="AH9" s="91"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A10" s="91" t="s">
+        <v>302</v>
+      </c>
+      <c r="B10" s="91" t="s">
+        <v>221</v>
+      </c>
+      <c r="C10" s="91" t="s">
+        <v>327</v>
+      </c>
+      <c r="D10" s="109" t="s">
+        <v>307</v>
+      </c>
+      <c r="E10" s="106">
+        <v>1</v>
+      </c>
+      <c r="F10" s="107">
+        <v>1</v>
+      </c>
+      <c r="G10" s="91">
+        <v>1</v>
+      </c>
+      <c r="H10" s="91"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="91"/>
+      <c r="M10" s="91"/>
+      <c r="N10" s="91"/>
+      <c r="O10" s="91"/>
+      <c r="P10" s="91"/>
+      <c r="Q10" s="91"/>
+      <c r="R10" s="91"/>
+      <c r="S10" s="91"/>
+      <c r="T10" s="91"/>
+      <c r="U10" s="91"/>
+      <c r="V10" s="91"/>
+      <c r="W10" s="91"/>
+      <c r="X10" s="91"/>
+      <c r="Y10" s="91"/>
+      <c r="Z10" s="91"/>
+      <c r="AA10" s="91"/>
+      <c r="AB10" s="91"/>
+      <c r="AC10" s="91"/>
+      <c r="AD10" s="91"/>
+      <c r="AE10" s="91"/>
+      <c r="AF10" s="91"/>
+      <c r="AG10" s="91"/>
+      <c r="AH10" s="91"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A11" s="91" t="s">
+        <v>301</v>
+      </c>
+      <c r="B11" s="91" t="s">
+        <v>221</v>
+      </c>
+      <c r="C11" s="91" t="s">
+        <v>327</v>
+      </c>
+      <c r="D11" s="109" t="s">
+        <v>307</v>
+      </c>
+      <c r="E11" s="106">
+        <v>1</v>
+      </c>
+      <c r="F11" s="107">
+        <v>1</v>
+      </c>
+      <c r="G11" s="91">
+        <v>1</v>
+      </c>
+      <c r="H11" s="91"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="91"/>
+      <c r="L11" s="91"/>
+      <c r="M11" s="91"/>
+      <c r="N11" s="91"/>
+      <c r="O11" s="91"/>
+      <c r="P11" s="91"/>
+      <c r="Q11" s="91"/>
+      <c r="R11" s="91"/>
+      <c r="S11" s="91"/>
+      <c r="T11" s="91"/>
+      <c r="U11" s="91"/>
+      <c r="V11" s="91"/>
+      <c r="W11" s="91"/>
+      <c r="X11" s="91"/>
+      <c r="Y11" s="91"/>
+      <c r="Z11" s="91"/>
+      <c r="AA11" s="91"/>
+      <c r="AB11" s="91"/>
+      <c r="AC11" s="91"/>
+      <c r="AD11" s="91"/>
+      <c r="AE11" s="91"/>
+      <c r="AF11" s="91"/>
+      <c r="AG11" s="91"/>
+      <c r="AH11" s="91"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A12" s="91" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="91" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12" s="91" t="s">
+        <v>328</v>
+      </c>
+      <c r="D12" s="109" t="s">
+        <v>309</v>
+      </c>
+      <c r="E12" s="106">
+        <v>1</v>
+      </c>
+      <c r="F12" s="107">
+        <v>1</v>
+      </c>
+      <c r="G12" s="91"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="91">
+        <v>1</v>
+      </c>
+      <c r="L12" s="91"/>
+      <c r="M12" s="91"/>
+      <c r="N12" s="91"/>
+      <c r="O12" s="91"/>
+      <c r="P12" s="91"/>
+      <c r="Q12" s="91"/>
+      <c r="R12" s="91"/>
+      <c r="S12" s="91"/>
+      <c r="T12" s="91"/>
+      <c r="U12" s="91"/>
+      <c r="V12" s="91"/>
+      <c r="W12" s="91"/>
+      <c r="X12" s="91"/>
+      <c r="Y12" s="91"/>
+      <c r="Z12" s="91"/>
+      <c r="AA12" s="91"/>
+      <c r="AB12" s="91"/>
+      <c r="AC12" s="91"/>
+      <c r="AD12" s="91"/>
+      <c r="AE12" s="91"/>
+      <c r="AF12" s="91"/>
+      <c r="AG12" s="91"/>
+      <c r="AH12" s="91"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A13" s="91" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="91" t="s">
+        <v>223</v>
+      </c>
+      <c r="C13" s="91" t="s">
+        <v>329</v>
+      </c>
+      <c r="D13" s="109" t="s">
+        <v>310</v>
+      </c>
+      <c r="E13" s="106">
+        <v>1</v>
+      </c>
+      <c r="F13" s="107">
+        <v>1</v>
+      </c>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="91"/>
+      <c r="N13" s="91"/>
+      <c r="O13" s="91"/>
+      <c r="P13" s="91"/>
+      <c r="Q13" s="91"/>
+      <c r="R13" s="91"/>
+      <c r="S13" s="91"/>
+      <c r="T13" s="91"/>
+      <c r="U13" s="91"/>
+      <c r="V13" s="91">
+        <v>1</v>
+      </c>
+      <c r="W13" s="91"/>
+      <c r="X13" s="91"/>
+      <c r="Y13" s="91"/>
+      <c r="Z13" s="91"/>
+      <c r="AA13" s="91"/>
+      <c r="AB13" s="91"/>
+      <c r="AC13" s="91"/>
+      <c r="AD13" s="91"/>
+      <c r="AE13" s="91"/>
+      <c r="AF13" s="91"/>
+      <c r="AG13" s="91"/>
+      <c r="AH13" s="91"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A14" s="91" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="91" t="s">
+        <v>224</v>
+      </c>
+      <c r="C14" s="91" t="s">
+        <v>330</v>
+      </c>
+      <c r="D14" s="109" t="s">
+        <v>311</v>
+      </c>
+      <c r="E14" s="106">
+        <v>1</v>
+      </c>
+      <c r="F14" s="92">
+        <v>2</v>
+      </c>
+      <c r="G14" s="91">
+        <v>0.72</v>
+      </c>
+      <c r="H14" s="91">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I14" s="91"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="91"/>
+      <c r="N14" s="91"/>
+      <c r="O14" s="91"/>
+      <c r="P14" s="91"/>
+      <c r="Q14" s="91"/>
+      <c r="R14" s="91"/>
+      <c r="S14" s="91"/>
+      <c r="T14" s="91"/>
+      <c r="U14" s="91"/>
+      <c r="V14" s="91"/>
+      <c r="W14" s="91"/>
+      <c r="X14" s="91"/>
+      <c r="Y14" s="91"/>
+      <c r="Z14" s="91"/>
+      <c r="AA14" s="91"/>
+      <c r="AB14" s="91"/>
+      <c r="AC14" s="91"/>
+      <c r="AD14" s="91"/>
+      <c r="AE14" s="91"/>
+      <c r="AF14" s="91"/>
+      <c r="AG14" s="91"/>
+      <c r="AH14" s="91"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A15" s="91" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="91" t="s">
+        <v>225</v>
+      </c>
+      <c r="C15" s="91" t="s">
+        <v>331</v>
+      </c>
+      <c r="D15" s="109" t="s">
+        <v>304</v>
+      </c>
+      <c r="E15" s="106">
+        <v>1</v>
+      </c>
+      <c r="F15" s="107">
+        <v>1</v>
+      </c>
+      <c r="G15" s="91"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="91"/>
+      <c r="J15" s="91">
+        <v>1</v>
+      </c>
+      <c r="K15" s="91"/>
+      <c r="L15" s="91"/>
+      <c r="M15" s="91"/>
+      <c r="N15" s="91"/>
+      <c r="O15" s="91"/>
+      <c r="P15" s="91"/>
+      <c r="Q15" s="91"/>
+      <c r="R15" s="91"/>
+      <c r="S15" s="91"/>
+      <c r="T15" s="91"/>
+      <c r="U15" s="91"/>
+      <c r="V15" s="91"/>
+      <c r="W15" s="91"/>
+      <c r="X15" s="91"/>
+      <c r="Y15" s="91"/>
+      <c r="Z15" s="91"/>
+      <c r="AA15" s="91"/>
+      <c r="AB15" s="91"/>
+      <c r="AC15" s="91"/>
+      <c r="AD15" s="91"/>
+      <c r="AE15" s="91"/>
+      <c r="AF15" s="91"/>
+      <c r="AG15" s="91"/>
+      <c r="AH15" s="91"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A16" s="91" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="91" t="s">
+        <v>226</v>
+      </c>
+      <c r="C16" s="91" t="s">
+        <v>332</v>
+      </c>
+      <c r="D16" s="109" t="s">
+        <v>312</v>
+      </c>
+      <c r="E16" s="106">
+        <v>1</v>
+      </c>
+      <c r="F16" s="92">
+        <v>2</v>
+      </c>
+      <c r="G16" s="91"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="91"/>
+      <c r="L16" s="91"/>
+      <c r="M16" s="91"/>
+      <c r="N16" s="91"/>
+      <c r="O16" s="91"/>
+      <c r="P16" s="91"/>
+      <c r="Q16" s="91"/>
+      <c r="R16" s="91"/>
+      <c r="S16" s="91"/>
+      <c r="T16" s="91"/>
+      <c r="U16" s="91"/>
+      <c r="V16" s="91"/>
+      <c r="W16" s="91"/>
+      <c r="X16" s="91"/>
+      <c r="Y16" s="91"/>
+      <c r="Z16" s="91"/>
+      <c r="AA16" s="91">
+        <v>0.9</v>
+      </c>
+      <c r="AB16" s="91"/>
+      <c r="AC16" s="91">
+        <v>0.1</v>
+      </c>
+      <c r="AD16" s="91"/>
+      <c r="AE16" s="91"/>
+      <c r="AF16" s="91"/>
+      <c r="AG16" s="91"/>
+      <c r="AH16" s="91"/>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A17" s="91" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="91" t="s">
+        <v>227</v>
+      </c>
+      <c r="C17" s="91" t="s">
+        <v>333</v>
+      </c>
+      <c r="D17" s="109">
+        <v>7225</v>
+      </c>
+      <c r="E17" s="106">
+        <v>1</v>
+      </c>
+      <c r="F17" s="92">
+        <v>2</v>
+      </c>
+      <c r="G17" s="91"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="91"/>
+      <c r="L17" s="91">
+        <v>0.33</v>
+      </c>
+      <c r="M17" s="91">
+        <v>0.67</v>
+      </c>
+      <c r="N17" s="91"/>
+      <c r="O17" s="91"/>
+      <c r="P17" s="91"/>
+      <c r="Q17" s="91"/>
+      <c r="R17" s="91"/>
+      <c r="S17" s="91"/>
+      <c r="T17" s="91"/>
+      <c r="U17" s="91"/>
+      <c r="V17" s="91"/>
+      <c r="W17" s="91"/>
+      <c r="X17" s="91"/>
+      <c r="Y17" s="91"/>
+      <c r="Z17" s="91"/>
+      <c r="AA17" s="91"/>
+      <c r="AB17" s="91"/>
+      <c r="AC17" s="91"/>
+      <c r="AD17" s="91"/>
+      <c r="AE17" s="91"/>
+      <c r="AF17" s="91"/>
+      <c r="AG17" s="91"/>
+      <c r="AH17" s="91"/>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A18" s="91" t="s">
+        <v>217</v>
+      </c>
+      <c r="B18" s="91" t="s">
+        <v>218</v>
+      </c>
+      <c r="C18" s="91" t="s">
+        <v>331</v>
+      </c>
+      <c r="D18" s="109" t="s">
+        <v>304</v>
+      </c>
+      <c r="E18" s="106">
+        <v>1</v>
+      </c>
+      <c r="F18" s="107">
+        <v>1</v>
+      </c>
+      <c r="G18" s="91"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="91"/>
+      <c r="J18" s="91">
+        <v>1</v>
+      </c>
+      <c r="K18" s="91"/>
+      <c r="L18" s="91"/>
+      <c r="M18" s="91"/>
+      <c r="N18" s="91"/>
+      <c r="O18" s="91"/>
+      <c r="P18" s="91"/>
+      <c r="Q18" s="91"/>
+      <c r="R18" s="91"/>
+      <c r="S18" s="91"/>
+      <c r="T18" s="91"/>
+      <c r="U18" s="91"/>
+      <c r="V18" s="91"/>
+      <c r="W18" s="91"/>
+      <c r="X18" s="91"/>
+      <c r="Y18" s="91"/>
+      <c r="Z18" s="91"/>
+      <c r="AA18" s="91"/>
+      <c r="AB18" s="91"/>
+      <c r="AC18" s="91"/>
+      <c r="AD18" s="91"/>
+      <c r="AE18" s="91"/>
+      <c r="AF18" s="91"/>
+      <c r="AG18" s="91"/>
+      <c r="AH18" s="91"/>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A19" s="91" t="s">
+        <v>279</v>
+      </c>
+      <c r="B19" s="109" t="s">
+        <v>209</v>
+      </c>
+      <c r="C19" s="91" t="s">
+        <v>334</v>
+      </c>
+      <c r="D19" s="109" t="s">
+        <v>313</v>
+      </c>
+      <c r="E19" s="106">
+        <v>1</v>
+      </c>
+      <c r="F19" s="92">
+        <v>3</v>
+      </c>
+      <c r="G19" s="91"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="91"/>
+      <c r="L19" s="91"/>
+      <c r="M19" s="91"/>
+      <c r="N19" s="91"/>
+      <c r="O19" s="110">
+        <v>0.15</v>
+      </c>
+      <c r="P19" s="110"/>
+      <c r="Q19" s="110">
+        <v>0.74</v>
+      </c>
+      <c r="R19" s="110">
+        <v>0.11</v>
+      </c>
+      <c r="S19" s="91"/>
+      <c r="T19" s="91"/>
+      <c r="U19" s="91"/>
+      <c r="V19" s="91"/>
+      <c r="W19" s="91"/>
+      <c r="X19" s="91"/>
+      <c r="Y19" s="91"/>
+      <c r="Z19" s="91"/>
+      <c r="AA19" s="91"/>
+      <c r="AB19" s="91"/>
+      <c r="AC19" s="91"/>
+      <c r="AD19" s="91"/>
+      <c r="AE19" s="91"/>
+      <c r="AF19" s="91"/>
+      <c r="AG19" s="91"/>
+      <c r="AH19" s="91"/>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A20" s="117" t="s">
+        <v>228</v>
+      </c>
+      <c r="B20" s="91" t="s">
+        <v>229</v>
+      </c>
+      <c r="C20" s="91" t="s">
+        <v>335</v>
+      </c>
+      <c r="D20" s="109">
+        <v>7228</v>
+      </c>
+      <c r="E20" s="106">
+        <v>1</v>
+      </c>
+      <c r="F20" s="92">
+        <v>4</v>
+      </c>
+      <c r="G20" s="91"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="91"/>
+      <c r="L20" s="91"/>
+      <c r="M20" s="91"/>
+      <c r="N20" s="91"/>
+      <c r="O20" s="91"/>
+      <c r="P20" s="91"/>
+      <c r="Q20" s="91"/>
+      <c r="R20" s="91"/>
+      <c r="S20" s="91"/>
+      <c r="T20" s="111">
+        <v>0.1</v>
+      </c>
+      <c r="U20" s="111">
+        <v>0.45</v>
+      </c>
+      <c r="V20" s="111">
+        <v>0.18</v>
+      </c>
+      <c r="W20" s="111">
+        <v>0.27</v>
+      </c>
+      <c r="X20" s="91"/>
+      <c r="Y20" s="91"/>
+      <c r="Z20" s="91"/>
+      <c r="AA20" s="91"/>
+      <c r="AB20" s="91"/>
+      <c r="AC20" s="91"/>
+      <c r="AD20" s="91"/>
+      <c r="AE20" s="91"/>
+      <c r="AF20" s="91"/>
+      <c r="AG20" s="91"/>
+      <c r="AH20" s="91"/>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A21" s="91" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="91" t="s">
+        <v>230</v>
+      </c>
+      <c r="C21" s="91" t="s">
+        <v>322</v>
+      </c>
+      <c r="D21" s="109" t="s">
+        <v>304</v>
+      </c>
+      <c r="E21" s="106">
+        <v>1</v>
+      </c>
+      <c r="F21" s="107">
+        <v>1</v>
+      </c>
+      <c r="G21" s="91">
+        <v>1</v>
+      </c>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="91"/>
+      <c r="N21" s="91"/>
+      <c r="O21" s="91"/>
+      <c r="P21" s="91"/>
+      <c r="Q21" s="91"/>
+      <c r="R21" s="91"/>
+      <c r="S21" s="91"/>
+      <c r="T21" s="91"/>
+      <c r="U21" s="91"/>
+      <c r="V21" s="91"/>
+      <c r="W21" s="91"/>
+      <c r="X21" s="91"/>
+      <c r="Y21" s="91"/>
+      <c r="Z21" s="91"/>
+      <c r="AA21" s="91"/>
+      <c r="AB21" s="91"/>
+      <c r="AC21" s="91"/>
+      <c r="AD21" s="91"/>
+      <c r="AE21" s="91"/>
+      <c r="AF21" s="91"/>
+      <c r="AG21" s="91"/>
+      <c r="AH21" s="91"/>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A22" s="91" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="91" t="s">
+        <v>231</v>
+      </c>
+      <c r="C22" s="91" t="s">
+        <v>336</v>
+      </c>
+      <c r="D22" s="109">
+        <v>7226</v>
+      </c>
+      <c r="E22" s="106">
+        <v>1</v>
+      </c>
+      <c r="F22" s="107">
+        <v>1</v>
+      </c>
+      <c r="G22" s="91"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="91"/>
+      <c r="J22" s="91"/>
+      <c r="K22" s="91"/>
+      <c r="L22" s="91">
+        <v>1</v>
+      </c>
+      <c r="M22" s="91"/>
+      <c r="N22" s="91"/>
+      <c r="O22" s="91"/>
+      <c r="P22" s="91"/>
+      <c r="Q22" s="91"/>
+      <c r="R22" s="91"/>
+      <c r="S22" s="91"/>
+      <c r="T22" s="91"/>
+      <c r="U22" s="91"/>
+      <c r="V22" s="91"/>
+      <c r="W22" s="91"/>
+      <c r="X22" s="91"/>
+      <c r="Y22" s="91"/>
+      <c r="Z22" s="91"/>
+      <c r="AA22" s="91"/>
+      <c r="AB22" s="91"/>
+      <c r="AC22" s="91"/>
+      <c r="AD22" s="91"/>
+      <c r="AE22" s="91"/>
+      <c r="AF22" s="91"/>
+      <c r="AG22" s="91"/>
+      <c r="AH22" s="91"/>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A23" s="91" t="s">
+        <v>232</v>
+      </c>
+      <c r="B23" s="91" t="s">
+        <v>233</v>
+      </c>
+      <c r="C23" s="91" t="s">
+        <v>337</v>
+      </c>
+      <c r="D23" s="109" t="s">
+        <v>304</v>
+      </c>
+      <c r="E23" s="106">
+        <v>1</v>
+      </c>
+      <c r="F23" s="107">
+        <v>1</v>
+      </c>
+      <c r="G23" s="91"/>
+      <c r="H23" s="91"/>
+      <c r="I23" s="91"/>
+      <c r="J23" s="91"/>
+      <c r="K23" s="91">
+        <v>1</v>
+      </c>
+      <c r="L23" s="91"/>
+      <c r="M23" s="91"/>
+      <c r="N23" s="91"/>
+      <c r="O23" s="91"/>
+      <c r="P23" s="91"/>
+      <c r="Q23" s="91"/>
+      <c r="R23" s="91"/>
+      <c r="S23" s="91"/>
+      <c r="T23" s="91"/>
+      <c r="U23" s="91"/>
+      <c r="V23" s="91"/>
+      <c r="W23" s="91"/>
+      <c r="X23" s="91"/>
+      <c r="Y23" s="91"/>
+      <c r="Z23" s="91"/>
+      <c r="AA23" s="91"/>
+      <c r="AB23" s="91"/>
+      <c r="AC23" s="91"/>
+      <c r="AD23" s="91"/>
+      <c r="AE23" s="91"/>
+      <c r="AF23" s="91"/>
+      <c r="AG23" s="91"/>
+      <c r="AH23" s="91"/>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A24" s="91" t="s">
+        <v>236</v>
+      </c>
+      <c r="B24" s="91" t="s">
+        <v>237</v>
+      </c>
+      <c r="C24" s="91" t="s">
+        <v>328</v>
+      </c>
+      <c r="D24" s="109" t="s">
+        <v>309</v>
+      </c>
+      <c r="E24" s="106">
+        <v>1</v>
+      </c>
+      <c r="F24" s="107">
+        <v>1</v>
+      </c>
+      <c r="G24" s="91">
+        <v>1</v>
+      </c>
+      <c r="H24" s="91"/>
+      <c r="I24" s="91"/>
+      <c r="J24" s="91"/>
+      <c r="K24" s="91"/>
+      <c r="L24" s="91"/>
+      <c r="M24" s="91"/>
+      <c r="N24" s="91"/>
+      <c r="O24" s="91"/>
+      <c r="P24" s="91"/>
+      <c r="Q24" s="91"/>
+      <c r="R24" s="91"/>
+      <c r="S24" s="91"/>
+      <c r="T24" s="91"/>
+      <c r="U24" s="91"/>
+      <c r="V24" s="91"/>
+      <c r="W24" s="91"/>
+      <c r="X24" s="91"/>
+      <c r="Y24" s="91"/>
+      <c r="Z24" s="91"/>
+      <c r="AA24" s="91"/>
+      <c r="AB24" s="91"/>
+      <c r="AC24" s="91"/>
+      <c r="AD24" s="91"/>
+      <c r="AE24" s="91"/>
+      <c r="AF24" s="91"/>
+      <c r="AG24" s="91"/>
+      <c r="AH24" s="91"/>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A25" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="91" t="s">
+        <v>234</v>
+      </c>
+      <c r="C25" s="91" t="s">
+        <v>328</v>
+      </c>
+      <c r="D25" s="109" t="s">
+        <v>309</v>
+      </c>
+      <c r="E25" s="106">
+        <v>1</v>
+      </c>
+      <c r="F25" s="107">
+        <v>1</v>
+      </c>
+      <c r="G25" s="91"/>
+      <c r="H25" s="91"/>
+      <c r="I25" s="91"/>
+      <c r="J25" s="91"/>
+      <c r="K25" s="91">
+        <v>1</v>
+      </c>
+      <c r="L25" s="91"/>
+      <c r="M25" s="91"/>
+      <c r="N25" s="91"/>
+      <c r="O25" s="91"/>
+      <c r="P25" s="91"/>
+      <c r="Q25" s="91"/>
+      <c r="R25" s="91"/>
+      <c r="S25" s="91"/>
+      <c r="T25" s="91"/>
+      <c r="U25" s="91"/>
+      <c r="V25" s="91"/>
+      <c r="W25" s="91"/>
+      <c r="X25" s="91"/>
+      <c r="Y25" s="91"/>
+      <c r="Z25" s="91"/>
+      <c r="AA25" s="91"/>
+      <c r="AB25" s="91"/>
+      <c r="AC25" s="91"/>
+      <c r="AD25" s="91"/>
+      <c r="AE25" s="91"/>
+      <c r="AF25" s="91"/>
+      <c r="AG25" s="91"/>
+      <c r="AH25" s="91"/>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A26" s="91" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="91" t="s">
+        <v>235</v>
+      </c>
+      <c r="C26" s="91" t="s">
+        <v>338</v>
+      </c>
+      <c r="D26" s="109" t="s">
+        <v>313</v>
+      </c>
+      <c r="E26" s="106">
+        <v>1</v>
+      </c>
+      <c r="F26" s="92">
+        <v>5</v>
+      </c>
+      <c r="G26" s="91"/>
+      <c r="H26" s="91"/>
+      <c r="I26" s="91"/>
+      <c r="J26" s="91"/>
+      <c r="K26" s="91"/>
+      <c r="L26" s="91"/>
+      <c r="M26" s="91"/>
+      <c r="N26" s="91"/>
+      <c r="O26" s="112">
+        <v>0.25</v>
+      </c>
+      <c r="P26" s="112">
+        <v>0.18</v>
+      </c>
+      <c r="Q26" s="112">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R26" s="112">
+        <v>0.25</v>
+      </c>
+      <c r="S26" s="112">
+        <v>0.25</v>
+      </c>
+      <c r="T26" s="112"/>
+      <c r="U26" s="112"/>
+      <c r="V26" s="112"/>
+      <c r="W26" s="112"/>
+      <c r="X26" s="91"/>
+      <c r="Y26" s="91"/>
+      <c r="Z26" s="91"/>
+      <c r="AA26" s="91"/>
+      <c r="AB26" s="91"/>
+      <c r="AC26" s="91"/>
+      <c r="AD26" s="91"/>
+      <c r="AE26" s="91"/>
+      <c r="AF26" s="91"/>
+      <c r="AG26" s="91"/>
+      <c r="AH26" s="91"/>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A27" s="91" t="s">
+        <v>238</v>
+      </c>
+      <c r="B27" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="91" t="s">
+        <v>327</v>
+      </c>
+      <c r="D27" s="109" t="s">
+        <v>307</v>
+      </c>
+      <c r="E27" s="106">
+        <v>1</v>
+      </c>
+      <c r="F27" s="107">
+        <v>1</v>
+      </c>
+      <c r="G27" s="91">
+        <v>1</v>
+      </c>
+      <c r="H27" s="91"/>
+      <c r="I27" s="91"/>
+      <c r="J27" s="91"/>
+      <c r="K27" s="91"/>
+      <c r="L27" s="91"/>
+      <c r="M27" s="91"/>
+      <c r="N27" s="91"/>
+      <c r="O27" s="91"/>
+      <c r="P27" s="91"/>
+      <c r="Q27" s="91"/>
+      <c r="R27" s="91"/>
+      <c r="S27" s="91"/>
+      <c r="T27" s="91"/>
+      <c r="U27" s="91"/>
+      <c r="V27" s="91"/>
+      <c r="W27" s="91"/>
+      <c r="X27" s="91"/>
+      <c r="Y27" s="91"/>
+      <c r="Z27" s="91"/>
+      <c r="AA27" s="91"/>
+      <c r="AB27" s="91"/>
+      <c r="AC27" s="91"/>
+      <c r="AD27" s="91"/>
+      <c r="AE27" s="91"/>
+      <c r="AF27" s="91"/>
+      <c r="AG27" s="91"/>
+      <c r="AH27" s="91"/>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A28" s="91" t="s">
+        <v>239</v>
+      </c>
+      <c r="B28" s="91" t="s">
+        <v>240</v>
+      </c>
+      <c r="C28" s="91" t="s">
+        <v>339</v>
+      </c>
+      <c r="D28" s="109" t="s">
+        <v>310</v>
+      </c>
+      <c r="E28" s="106">
+        <v>1</v>
+      </c>
+      <c r="F28" s="107">
+        <v>1</v>
+      </c>
+      <c r="G28" s="91"/>
+      <c r="H28" s="91"/>
+      <c r="I28" s="91"/>
+      <c r="J28" s="91"/>
+      <c r="K28" s="91"/>
+      <c r="L28" s="91"/>
+      <c r="M28" s="91"/>
+      <c r="N28" s="91">
+        <v>1</v>
+      </c>
+      <c r="O28" s="91"/>
+      <c r="P28" s="91"/>
+      <c r="Q28" s="91"/>
+      <c r="R28" s="91"/>
+      <c r="S28" s="91"/>
+      <c r="T28" s="91"/>
+      <c r="U28" s="91"/>
+      <c r="V28" s="91"/>
+      <c r="W28" s="91"/>
+      <c r="X28" s="91"/>
+      <c r="Y28" s="91"/>
+      <c r="Z28" s="91"/>
+      <c r="AA28" s="91"/>
+      <c r="AB28" s="91"/>
+      <c r="AC28" s="91"/>
+      <c r="AD28" s="91"/>
+      <c r="AE28" s="91"/>
+      <c r="AF28" s="91"/>
+      <c r="AG28" s="91"/>
+      <c r="AH28" s="91"/>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A29" s="91" t="s">
+        <v>297</v>
+      </c>
+      <c r="B29" s="109" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" s="91" t="s">
+        <v>340</v>
+      </c>
+      <c r="D29" s="109" t="s">
+        <v>351</v>
+      </c>
+      <c r="E29" s="106">
+        <v>1</v>
+      </c>
+      <c r="F29" s="92">
+        <v>2</v>
+      </c>
+      <c r="G29" s="91"/>
+      <c r="H29" s="91"/>
+      <c r="I29" s="91"/>
+      <c r="J29" s="91"/>
+      <c r="K29" s="113">
+        <v>0.95</v>
+      </c>
+      <c r="L29" s="113"/>
+      <c r="M29" s="113"/>
+      <c r="N29" s="113"/>
+      <c r="O29" s="113"/>
+      <c r="P29" s="113"/>
+      <c r="Q29" s="113"/>
+      <c r="R29" s="113"/>
+      <c r="S29" s="113"/>
+      <c r="T29" s="113"/>
+      <c r="U29" s="113"/>
+      <c r="V29" s="113"/>
+      <c r="W29" s="113"/>
+      <c r="X29" s="113"/>
+      <c r="Y29" s="113"/>
+      <c r="Z29" s="113"/>
+      <c r="AA29" s="113"/>
+      <c r="AB29" s="113">
+        <v>0.05</v>
+      </c>
+      <c r="AC29" s="113"/>
+      <c r="AD29" s="91"/>
+      <c r="AE29" s="91"/>
+      <c r="AF29" s="91"/>
+      <c r="AG29" s="91"/>
+      <c r="AH29" s="91"/>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A30" s="91" t="s">
+        <v>298</v>
+      </c>
+      <c r="B30" s="109" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" s="91" t="s">
+        <v>340</v>
+      </c>
+      <c r="D30" s="109" t="s">
+        <v>351</v>
+      </c>
+      <c r="E30" s="106">
+        <v>1</v>
+      </c>
+      <c r="F30" s="92">
+        <v>2</v>
+      </c>
+      <c r="G30" s="91"/>
+      <c r="H30" s="91"/>
+      <c r="I30" s="91"/>
+      <c r="J30" s="91"/>
+      <c r="K30" s="113">
+        <v>0.95</v>
+      </c>
+      <c r="L30" s="113"/>
+      <c r="M30" s="113"/>
+      <c r="N30" s="113"/>
+      <c r="O30" s="113"/>
+      <c r="P30" s="113"/>
+      <c r="Q30" s="113"/>
+      <c r="R30" s="113"/>
+      <c r="S30" s="113"/>
+      <c r="T30" s="113"/>
+      <c r="U30" s="113"/>
+      <c r="V30" s="113"/>
+      <c r="W30" s="113"/>
+      <c r="X30" s="113"/>
+      <c r="Y30" s="113"/>
+      <c r="Z30" s="113"/>
+      <c r="AA30" s="113"/>
+      <c r="AB30" s="113">
+        <v>0.05</v>
+      </c>
+      <c r="AC30" s="113"/>
+      <c r="AD30" s="91"/>
+      <c r="AE30" s="91"/>
+      <c r="AF30" s="91"/>
+      <c r="AG30" s="91"/>
+      <c r="AH30" s="91"/>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A31" s="91" t="s">
+        <v>294</v>
+      </c>
+      <c r="B31" s="91" t="s">
+        <v>241</v>
+      </c>
+      <c r="C31" s="91" t="s">
+        <v>341</v>
+      </c>
+      <c r="D31" s="109" t="s">
+        <v>314</v>
+      </c>
+      <c r="E31" s="106">
+        <v>1</v>
+      </c>
+      <c r="F31" s="107">
+        <v>1</v>
+      </c>
+      <c r="G31" s="91"/>
+      <c r="H31" s="91"/>
+      <c r="I31" s="91"/>
+      <c r="J31" s="91"/>
+      <c r="K31" s="91"/>
+      <c r="L31" s="91"/>
+      <c r="M31" s="91"/>
+      <c r="N31" s="91"/>
+      <c r="O31" s="91"/>
+      <c r="P31" s="91"/>
+      <c r="Q31" s="91"/>
+      <c r="R31" s="91"/>
+      <c r="S31" s="91"/>
+      <c r="T31" s="91"/>
+      <c r="U31" s="91"/>
+      <c r="V31" s="91"/>
+      <c r="W31" s="91"/>
+      <c r="X31" s="91"/>
+      <c r="Y31" s="114"/>
+      <c r="Z31" s="114">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="114"/>
+      <c r="AB31" s="114"/>
+      <c r="AC31" s="114"/>
+      <c r="AD31" s="114"/>
+      <c r="AE31" s="114"/>
+      <c r="AF31" s="91"/>
+      <c r="AG31" s="91"/>
+      <c r="AH31" s="91"/>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A32" s="91" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="91" t="s">
+        <v>241</v>
+      </c>
+      <c r="C32" s="91" t="s">
+        <v>341</v>
+      </c>
+      <c r="D32" s="109" t="s">
+        <v>314</v>
+      </c>
+      <c r="E32" s="106">
+        <v>1</v>
+      </c>
+      <c r="F32" s="107">
+        <v>1</v>
+      </c>
+      <c r="G32" s="91"/>
+      <c r="H32" s="91"/>
+      <c r="I32" s="91"/>
+      <c r="J32" s="91"/>
+      <c r="K32" s="91"/>
+      <c r="L32" s="91"/>
+      <c r="M32" s="91"/>
+      <c r="N32" s="91"/>
+      <c r="O32" s="91"/>
+      <c r="P32" s="91"/>
+      <c r="Q32" s="91"/>
+      <c r="R32" s="91"/>
+      <c r="S32" s="91"/>
+      <c r="T32" s="91"/>
+      <c r="U32" s="91"/>
+      <c r="V32" s="91"/>
+      <c r="W32" s="91"/>
+      <c r="X32" s="91"/>
+      <c r="Y32" s="114"/>
+      <c r="Z32" s="114">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="114"/>
+      <c r="AB32" s="114"/>
+      <c r="AC32" s="114"/>
+      <c r="AD32" s="114"/>
+      <c r="AE32" s="114"/>
+      <c r="AF32" s="91"/>
+      <c r="AG32" s="91"/>
+      <c r="AH32" s="91"/>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A33" s="117" t="s">
+        <v>276</v>
+      </c>
+      <c r="B33" s="109" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" s="91" t="s">
+        <v>342</v>
+      </c>
+      <c r="D33" s="109" t="s">
+        <v>315</v>
+      </c>
+      <c r="E33" s="106">
+        <v>1</v>
+      </c>
+      <c r="F33" s="92">
+        <v>2</v>
+      </c>
+      <c r="G33" s="91">
+        <v>0.82</v>
+      </c>
+      <c r="H33" s="91">
+        <v>0.18</v>
+      </c>
+      <c r="I33" s="91"/>
+      <c r="J33" s="91"/>
+      <c r="K33" s="91"/>
+      <c r="L33" s="91"/>
+      <c r="M33" s="91"/>
+      <c r="N33" s="91"/>
+      <c r="O33" s="91"/>
+      <c r="P33" s="91"/>
+      <c r="Q33" s="91"/>
+      <c r="R33" s="91"/>
+      <c r="S33" s="91"/>
+      <c r="T33" s="91"/>
+      <c r="U33" s="91"/>
+      <c r="V33" s="91"/>
+      <c r="W33" s="91"/>
+      <c r="X33" s="91"/>
+      <c r="Y33" s="91"/>
+      <c r="Z33" s="91"/>
+      <c r="AA33" s="91"/>
+      <c r="AB33" s="91"/>
+      <c r="AC33" s="91"/>
+      <c r="AD33" s="91"/>
+      <c r="AE33" s="91"/>
+      <c r="AF33" s="91"/>
+      <c r="AG33" s="91"/>
+      <c r="AH33" s="91"/>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A34" s="91" t="s">
+        <v>303</v>
+      </c>
+      <c r="B34" s="109" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" s="91" t="s">
+        <v>342</v>
+      </c>
+      <c r="D34" s="109" t="s">
+        <v>315</v>
+      </c>
+      <c r="E34" s="106">
+        <v>1</v>
+      </c>
+      <c r="F34" s="92">
+        <v>2</v>
+      </c>
+      <c r="G34" s="91">
+        <v>0.82</v>
+      </c>
+      <c r="H34" s="91">
+        <v>0.18</v>
+      </c>
+      <c r="I34" s="91"/>
+      <c r="J34" s="91"/>
+      <c r="K34" s="91"/>
+      <c r="L34" s="91"/>
+      <c r="M34" s="91"/>
+      <c r="N34" s="91"/>
+      <c r="O34" s="91"/>
+      <c r="P34" s="91"/>
+      <c r="Q34" s="91"/>
+      <c r="R34" s="91"/>
+      <c r="S34" s="91"/>
+      <c r="T34" s="91"/>
+      <c r="U34" s="91"/>
+      <c r="V34" s="91"/>
+      <c r="W34" s="91"/>
+      <c r="X34" s="91"/>
+      <c r="Y34" s="91"/>
+      <c r="Z34" s="91"/>
+      <c r="AA34" s="91"/>
+      <c r="AB34" s="91"/>
+      <c r="AC34" s="91"/>
+      <c r="AD34" s="91"/>
+      <c r="AE34" s="91"/>
+      <c r="AF34" s="91"/>
+      <c r="AG34" s="91"/>
+      <c r="AH34" s="91"/>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A35" s="91" t="s">
+        <v>293</v>
+      </c>
+      <c r="B35" s="109" t="s">
+        <v>190</v>
+      </c>
+      <c r="C35" s="91" t="s">
+        <v>322</v>
+      </c>
+      <c r="D35" s="109" t="s">
+        <v>304</v>
+      </c>
+      <c r="E35" s="106">
+        <v>1</v>
+      </c>
+      <c r="F35" s="107">
+        <v>1</v>
+      </c>
+      <c r="G35" s="91">
+        <v>1</v>
+      </c>
+      <c r="H35" s="91"/>
+      <c r="I35" s="91"/>
+      <c r="J35" s="91"/>
+      <c r="K35" s="91"/>
+      <c r="L35" s="91"/>
+      <c r="M35" s="91"/>
+      <c r="N35" s="91"/>
+      <c r="O35" s="91"/>
+      <c r="P35" s="91"/>
+      <c r="Q35" s="91"/>
+      <c r="R35" s="91"/>
+      <c r="S35" s="91"/>
+      <c r="T35" s="91"/>
+      <c r="U35" s="91"/>
+      <c r="V35" s="91"/>
+      <c r="W35" s="91"/>
+      <c r="X35" s="91"/>
+      <c r="Y35" s="91"/>
+      <c r="Z35" s="91"/>
+      <c r="AA35" s="91"/>
+      <c r="AB35" s="91"/>
+      <c r="AC35" s="91"/>
+      <c r="AD35" s="91"/>
+      <c r="AE35" s="91"/>
+      <c r="AF35" s="91"/>
+      <c r="AG35" s="91"/>
+      <c r="AH35" s="91"/>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A36" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="91" t="s">
+        <v>242</v>
+      </c>
+      <c r="C36" s="91" t="s">
+        <v>343</v>
+      </c>
+      <c r="D36" s="109" t="s">
+        <v>311</v>
+      </c>
+      <c r="E36" s="106">
+        <v>1</v>
+      </c>
+      <c r="F36" s="107">
+        <v>1</v>
+      </c>
+      <c r="G36" s="91"/>
+      <c r="H36" s="91"/>
+      <c r="I36" s="91"/>
+      <c r="J36" s="91"/>
+      <c r="K36" s="91">
+        <v>1</v>
+      </c>
+      <c r="L36" s="91"/>
+      <c r="M36" s="91"/>
+      <c r="N36" s="91"/>
+      <c r="O36" s="91"/>
+      <c r="P36" s="91"/>
+      <c r="Q36" s="91"/>
+      <c r="R36" s="91"/>
+      <c r="S36" s="91"/>
+      <c r="T36" s="91"/>
+      <c r="U36" s="91"/>
+      <c r="V36" s="91"/>
+      <c r="W36" s="91"/>
+      <c r="X36" s="91"/>
+      <c r="Y36" s="91"/>
+      <c r="Z36" s="91"/>
+      <c r="AA36" s="91"/>
+      <c r="AB36" s="91"/>
+      <c r="AC36" s="91"/>
+      <c r="AD36" s="91"/>
+      <c r="AE36" s="91"/>
+      <c r="AF36" s="91"/>
+      <c r="AG36" s="91"/>
+      <c r="AH36" s="91"/>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A37" s="117" t="s">
+        <v>276</v>
+      </c>
+      <c r="B37" s="109" t="s">
+        <v>133</v>
+      </c>
+      <c r="C37" s="91" t="s">
+        <v>344</v>
+      </c>
+      <c r="D37" s="109" t="s">
+        <v>316</v>
+      </c>
+      <c r="E37" s="106">
+        <v>1</v>
+      </c>
+      <c r="F37" s="107">
+        <v>1</v>
+      </c>
+      <c r="G37" s="91">
+        <v>1</v>
+      </c>
+      <c r="H37" s="91"/>
+      <c r="I37" s="91"/>
+      <c r="J37" s="91"/>
+      <c r="K37" s="91"/>
+      <c r="L37" s="91"/>
+      <c r="M37" s="91"/>
+      <c r="N37" s="91"/>
+      <c r="O37" s="91"/>
+      <c r="P37" s="91"/>
+      <c r="Q37" s="91"/>
+      <c r="R37" s="91"/>
+      <c r="S37" s="91"/>
+      <c r="T37" s="91"/>
+      <c r="U37" s="91"/>
+      <c r="V37" s="91"/>
+      <c r="W37" s="91"/>
+      <c r="X37" s="91"/>
+      <c r="Y37" s="91"/>
+      <c r="Z37" s="91"/>
+      <c r="AA37" s="91"/>
+      <c r="AB37" s="91"/>
+      <c r="AC37" s="91"/>
+      <c r="AD37" s="91"/>
+      <c r="AE37" s="91"/>
+      <c r="AF37" s="91"/>
+      <c r="AG37" s="91"/>
+      <c r="AH37" s="91"/>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A38" s="117" t="s">
+        <v>352</v>
+      </c>
+      <c r="B38" s="109" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" s="91" t="s">
+        <v>345</v>
+      </c>
+      <c r="D38" s="109" t="s">
+        <v>317</v>
+      </c>
+      <c r="E38" s="106">
+        <v>1</v>
+      </c>
+      <c r="F38" s="107">
+        <v>1</v>
+      </c>
+      <c r="G38" s="91"/>
+      <c r="H38" s="91"/>
+      <c r="I38" s="91"/>
+      <c r="J38" s="91"/>
+      <c r="K38" s="91"/>
+      <c r="L38" s="91"/>
+      <c r="M38" s="91"/>
+      <c r="N38" s="91"/>
+      <c r="O38" s="91"/>
+      <c r="P38" s="91"/>
+      <c r="Q38" s="91"/>
+      <c r="R38" s="91"/>
+      <c r="S38" s="91"/>
+      <c r="T38" s="91"/>
+      <c r="U38" s="91"/>
+      <c r="V38" s="91"/>
+      <c r="W38" s="91"/>
+      <c r="X38" s="91"/>
+      <c r="Y38" s="91"/>
+      <c r="Z38" s="91"/>
+      <c r="AA38" s="91"/>
+      <c r="AB38" s="91"/>
+      <c r="AC38" s="91"/>
+      <c r="AD38" s="91">
+        <v>1</v>
+      </c>
+      <c r="AE38" s="91"/>
+      <c r="AF38" s="91"/>
+      <c r="AG38" s="91"/>
+      <c r="AH38" s="91"/>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A39" s="117" t="s">
+        <v>295</v>
+      </c>
+      <c r="B39" s="91" t="s">
+        <v>243</v>
+      </c>
+      <c r="C39" s="91" t="s">
+        <v>346</v>
+      </c>
+      <c r="D39" s="109" t="s">
+        <v>318</v>
+      </c>
+      <c r="E39" s="106">
+        <v>1</v>
+      </c>
+      <c r="F39" s="92">
+        <v>7</v>
+      </c>
+      <c r="G39" s="91"/>
+      <c r="H39" s="91"/>
+      <c r="I39" s="91"/>
+      <c r="J39" s="91"/>
+      <c r="K39" s="115">
+        <v>0.2</v>
+      </c>
+      <c r="L39" s="115"/>
+      <c r="M39" s="115">
+        <v>0.24</v>
+      </c>
+      <c r="N39" s="115"/>
+      <c r="O39" s="115"/>
+      <c r="P39" s="115"/>
+      <c r="Q39" s="115">
+        <v>0.05</v>
+      </c>
+      <c r="R39" s="115">
+        <v>0.04</v>
+      </c>
+      <c r="S39" s="115">
+        <v>0.02</v>
+      </c>
+      <c r="T39" s="115">
+        <v>0.06</v>
+      </c>
+      <c r="U39" s="115">
+        <v>0.39</v>
+      </c>
+      <c r="V39" s="91"/>
+      <c r="W39" s="91"/>
+      <c r="X39" s="91"/>
+      <c r="Y39" s="91"/>
+      <c r="Z39" s="91"/>
+      <c r="AA39" s="91"/>
+      <c r="AB39" s="91"/>
+      <c r="AC39" s="91"/>
+      <c r="AD39" s="91"/>
+      <c r="AE39" s="91"/>
+      <c r="AF39" s="91"/>
+      <c r="AG39" s="91"/>
+      <c r="AH39" s="91"/>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A40" s="117" t="s">
+        <v>296</v>
+      </c>
+      <c r="B40" s="91" t="s">
+        <v>243</v>
+      </c>
+      <c r="C40" s="91" t="s">
+        <v>346</v>
+      </c>
+      <c r="D40" s="109" t="s">
+        <v>318</v>
+      </c>
+      <c r="E40" s="106">
+        <v>1</v>
+      </c>
+      <c r="F40" s="92">
+        <v>7</v>
+      </c>
+      <c r="G40" s="91"/>
+      <c r="H40" s="91"/>
+      <c r="I40" s="91"/>
+      <c r="J40" s="91"/>
+      <c r="K40" s="115">
+        <v>0.2</v>
+      </c>
+      <c r="L40" s="115"/>
+      <c r="M40" s="115">
+        <v>0.24</v>
+      </c>
+      <c r="N40" s="115"/>
+      <c r="O40" s="115"/>
+      <c r="P40" s="115"/>
+      <c r="Q40" s="115">
+        <v>0.05</v>
+      </c>
+      <c r="R40" s="115">
+        <v>0.04</v>
+      </c>
+      <c r="S40" s="115">
+        <v>0.02</v>
+      </c>
+      <c r="T40" s="115">
+        <v>0.06</v>
+      </c>
+      <c r="U40" s="115">
+        <v>0.39</v>
+      </c>
+      <c r="V40" s="91"/>
+      <c r="W40" s="91"/>
+      <c r="X40" s="91"/>
+      <c r="Y40" s="91"/>
+      <c r="Z40" s="91"/>
+      <c r="AA40" s="91"/>
+      <c r="AB40" s="91"/>
+      <c r="AC40" s="91"/>
+      <c r="AD40" s="91"/>
+      <c r="AE40" s="91"/>
+      <c r="AF40" s="91"/>
+      <c r="AG40" s="91"/>
+      <c r="AH40" s="91"/>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A41" s="117" t="s">
+        <v>299</v>
+      </c>
+      <c r="B41" s="91" t="s">
+        <v>243</v>
+      </c>
+      <c r="C41" s="91" t="s">
+        <v>346</v>
+      </c>
+      <c r="D41" s="109" t="s">
+        <v>318</v>
+      </c>
+      <c r="E41" s="106">
+        <v>1</v>
+      </c>
+      <c r="F41" s="92">
+        <v>7</v>
+      </c>
+      <c r="G41" s="91"/>
+      <c r="H41" s="91"/>
+      <c r="I41" s="91"/>
+      <c r="J41" s="91"/>
+      <c r="K41" s="115">
+        <v>0.2</v>
+      </c>
+      <c r="L41" s="115"/>
+      <c r="M41" s="115">
+        <v>0.24</v>
+      </c>
+      <c r="N41" s="115"/>
+      <c r="O41" s="115"/>
+      <c r="P41" s="115"/>
+      <c r="Q41" s="115">
+        <v>0.05</v>
+      </c>
+      <c r="R41" s="115">
+        <v>0.04</v>
+      </c>
+      <c r="S41" s="115">
+        <v>0.02</v>
+      </c>
+      <c r="T41" s="115">
+        <v>0.06</v>
+      </c>
+      <c r="U41" s="115">
+        <v>0.39</v>
+      </c>
+      <c r="V41" s="91"/>
+      <c r="W41" s="91"/>
+      <c r="X41" s="91"/>
+      <c r="Y41" s="91"/>
+      <c r="Z41" s="91"/>
+      <c r="AA41" s="91"/>
+      <c r="AB41" s="91"/>
+      <c r="AC41" s="91"/>
+      <c r="AD41" s="91"/>
+      <c r="AE41" s="91"/>
+      <c r="AF41" s="91"/>
+      <c r="AG41" s="91"/>
+      <c r="AH41" s="91"/>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A42" s="117" t="s">
+        <v>300</v>
+      </c>
+      <c r="B42" s="91" t="s">
+        <v>243</v>
+      </c>
+      <c r="C42" s="91" t="s">
+        <v>346</v>
+      </c>
+      <c r="D42" s="109" t="s">
+        <v>318</v>
+      </c>
+      <c r="E42" s="106">
+        <v>1</v>
+      </c>
+      <c r="F42" s="92">
+        <v>7</v>
+      </c>
+      <c r="G42" s="91"/>
+      <c r="H42" s="91"/>
+      <c r="I42" s="91"/>
+      <c r="J42" s="91"/>
+      <c r="K42" s="115">
+        <v>0.2</v>
+      </c>
+      <c r="L42" s="115"/>
+      <c r="M42" s="115">
+        <v>0.24</v>
+      </c>
+      <c r="N42" s="115"/>
+      <c r="O42" s="115"/>
+      <c r="P42" s="115"/>
+      <c r="Q42" s="115">
+        <v>0.05</v>
+      </c>
+      <c r="R42" s="115">
+        <v>0.04</v>
+      </c>
+      <c r="S42" s="115">
+        <v>0.02</v>
+      </c>
+      <c r="T42" s="115">
+        <v>0.06</v>
+      </c>
+      <c r="U42" s="115">
+        <v>0.39</v>
+      </c>
+      <c r="V42" s="91"/>
+      <c r="W42" s="91"/>
+      <c r="X42" s="91"/>
+      <c r="Y42" s="91"/>
+      <c r="Z42" s="91"/>
+      <c r="AA42" s="91"/>
+      <c r="AB42" s="91"/>
+      <c r="AC42" s="91"/>
+      <c r="AD42" s="91"/>
+      <c r="AE42" s="91"/>
+      <c r="AF42" s="91"/>
+      <c r="AG42" s="91"/>
+      <c r="AH42" s="91"/>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A43" s="91" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="91" t="s">
+        <v>244</v>
+      </c>
+      <c r="C43" s="91" t="s">
+        <v>347</v>
+      </c>
+      <c r="D43" s="109" t="s">
+        <v>319</v>
+      </c>
+      <c r="E43" s="106">
+        <v>1</v>
+      </c>
+      <c r="F43" s="92">
+        <v>3</v>
+      </c>
+      <c r="G43" s="91"/>
+      <c r="H43" s="91"/>
+      <c r="I43" s="91"/>
+      <c r="J43" s="91"/>
+      <c r="K43" s="91"/>
+      <c r="L43" s="91"/>
+      <c r="M43" s="91"/>
+      <c r="N43" s="91"/>
+      <c r="O43" s="91"/>
+      <c r="P43" s="91"/>
+      <c r="Q43" s="91"/>
+      <c r="R43" s="91"/>
+      <c r="S43" s="91"/>
+      <c r="T43" s="91"/>
+      <c r="U43" s="91"/>
+      <c r="V43" s="91"/>
+      <c r="W43" s="91"/>
+      <c r="X43" s="116">
+        <v>0.27</v>
+      </c>
+      <c r="Y43" s="116">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="Z43" s="116">
+        <v>0.44</v>
+      </c>
+      <c r="AA43" s="91"/>
+      <c r="AB43" s="91"/>
+      <c r="AC43" s="91"/>
+      <c r="AD43" s="91"/>
+      <c r="AE43" s="91"/>
+      <c r="AF43" s="91"/>
+      <c r="AG43" s="91"/>
+      <c r="AH43" s="91"/>
+    </row>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A44" s="91" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" s="91" t="s">
+        <v>244</v>
+      </c>
+      <c r="C44" s="91" t="s">
+        <v>347</v>
+      </c>
+      <c r="D44" s="109" t="s">
+        <v>319</v>
+      </c>
+      <c r="E44" s="106">
+        <v>1</v>
+      </c>
+      <c r="F44" s="92">
+        <v>3</v>
+      </c>
+      <c r="G44" s="91"/>
+      <c r="H44" s="91"/>
+      <c r="I44" s="91"/>
+      <c r="J44" s="91"/>
+      <c r="K44" s="91"/>
+      <c r="L44" s="91"/>
+      <c r="M44" s="91"/>
+      <c r="N44" s="91"/>
+      <c r="O44" s="91"/>
+      <c r="P44" s="91"/>
+      <c r="Q44" s="91"/>
+      <c r="R44" s="91"/>
+      <c r="S44" s="91"/>
+      <c r="T44" s="91"/>
+      <c r="U44" s="91"/>
+      <c r="V44" s="91"/>
+      <c r="W44" s="91"/>
+      <c r="X44" s="116">
+        <v>0.27</v>
+      </c>
+      <c r="Y44" s="116">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="Z44" s="116">
+        <v>0.44</v>
+      </c>
+      <c r="AA44" s="91"/>
+      <c r="AB44" s="91"/>
+      <c r="AC44" s="91"/>
+      <c r="AD44" s="91"/>
+      <c r="AE44" s="91"/>
+      <c r="AF44" s="91"/>
+      <c r="AG44" s="91"/>
+      <c r="AH44" s="91"/>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A45" s="91" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="91" t="s">
+        <v>245</v>
+      </c>
+      <c r="C45" s="91" t="s">
+        <v>322</v>
+      </c>
+      <c r="D45" s="109" t="s">
+        <v>304</v>
+      </c>
+      <c r="E45" s="106">
+        <v>1</v>
+      </c>
+      <c r="F45" s="107">
+        <v>1</v>
+      </c>
+      <c r="G45" s="91">
+        <v>1</v>
+      </c>
+      <c r="H45" s="91"/>
+      <c r="I45" s="91"/>
+      <c r="J45" s="91"/>
+      <c r="K45" s="91"/>
+      <c r="L45" s="91"/>
+      <c r="M45" s="91"/>
+      <c r="N45" s="91"/>
+      <c r="O45" s="91"/>
+      <c r="P45" s="91"/>
+      <c r="Q45" s="91"/>
+      <c r="R45" s="91"/>
+      <c r="S45" s="91"/>
+      <c r="T45" s="91"/>
+      <c r="U45" s="91"/>
+      <c r="V45" s="91"/>
+      <c r="W45" s="91"/>
+      <c r="X45" s="91"/>
+      <c r="Y45" s="91"/>
+      <c r="Z45" s="91"/>
+      <c r="AA45" s="91"/>
+      <c r="AB45" s="91"/>
+      <c r="AC45" s="91"/>
+      <c r="AD45" s="91"/>
+      <c r="AE45" s="91"/>
+      <c r="AF45" s="91"/>
+      <c r="AG45" s="91"/>
+      <c r="AH45" s="91"/>
+    </row>
+    <row r="46" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A46" s="91" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="91" t="s">
+        <v>246</v>
+      </c>
+      <c r="C46" s="91" t="s">
+        <v>327</v>
+      </c>
+      <c r="D46" s="109" t="s">
+        <v>307</v>
+      </c>
+      <c r="E46" s="106">
+        <v>1</v>
+      </c>
+      <c r="F46" s="107">
+        <v>1</v>
+      </c>
+      <c r="G46" s="91">
+        <v>1</v>
+      </c>
+      <c r="H46" s="91"/>
+      <c r="I46" s="91"/>
+      <c r="J46" s="91"/>
+      <c r="K46" s="91"/>
+      <c r="L46" s="91"/>
+      <c r="M46" s="91"/>
+      <c r="N46" s="91"/>
+      <c r="O46" s="91"/>
+      <c r="P46" s="91"/>
+      <c r="Q46" s="91"/>
+      <c r="R46" s="91"/>
+      <c r="S46" s="91"/>
+      <c r="T46" s="91"/>
+      <c r="U46" s="91"/>
+      <c r="V46" s="91"/>
+      <c r="W46" s="91"/>
+      <c r="X46" s="91"/>
+      <c r="Y46" s="91"/>
+      <c r="Z46" s="91"/>
+      <c r="AA46" s="91"/>
+      <c r="AB46" s="91"/>
+      <c r="AC46" s="91"/>
+      <c r="AD46" s="91"/>
+      <c r="AE46" s="91"/>
+      <c r="AF46" s="91"/>
+      <c r="AG46" s="91"/>
+      <c r="AH46" s="91"/>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A47" s="91" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="91" t="s">
+        <v>247</v>
+      </c>
+      <c r="C47" s="91" t="s">
+        <v>348</v>
+      </c>
+      <c r="D47" s="109" t="s">
+        <v>320</v>
+      </c>
+      <c r="E47" s="106">
+        <v>1</v>
+      </c>
+      <c r="F47" s="92">
+        <v>2</v>
+      </c>
+      <c r="G47" s="91">
+        <v>0.38</v>
+      </c>
+      <c r="H47" s="91">
+        <v>0.62</v>
+      </c>
+      <c r="I47" s="91"/>
+      <c r="J47" s="91"/>
+      <c r="K47" s="91"/>
+      <c r="L47" s="91"/>
+      <c r="M47" s="91"/>
+      <c r="N47" s="91"/>
+      <c r="O47" s="91"/>
+      <c r="P47" s="91"/>
+      <c r="Q47" s="91"/>
+      <c r="R47" s="91"/>
+      <c r="S47" s="91"/>
+      <c r="T47" s="91"/>
+      <c r="U47" s="91"/>
+      <c r="V47" s="91"/>
+      <c r="W47" s="91"/>
+      <c r="X47" s="91"/>
+      <c r="Y47" s="91"/>
+      <c r="Z47" s="91"/>
+      <c r="AA47" s="91"/>
+      <c r="AB47" s="91"/>
+      <c r="AC47" s="91"/>
+      <c r="AD47" s="91"/>
+      <c r="AE47" s="91"/>
+      <c r="AF47" s="91"/>
+      <c r="AG47" s="91"/>
+      <c r="AH47" s="91"/>
+    </row>
+    <row r="48" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A48" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="91" t="s">
+        <v>248</v>
+      </c>
+      <c r="C48" s="91" t="s">
+        <v>349</v>
+      </c>
+      <c r="D48" s="109" t="s">
+        <v>321</v>
+      </c>
+      <c r="E48" s="106">
+        <v>1</v>
+      </c>
+      <c r="F48" s="92">
+        <v>3</v>
+      </c>
+      <c r="G48" s="91"/>
+      <c r="H48" s="91"/>
+      <c r="I48" s="91"/>
+      <c r="J48" s="91"/>
+      <c r="K48" s="113"/>
+      <c r="L48" s="113"/>
+      <c r="M48" s="113"/>
+      <c r="N48" s="113"/>
+      <c r="O48" s="113"/>
+      <c r="P48" s="113"/>
+      <c r="Q48" s="113"/>
+      <c r="R48" s="113"/>
+      <c r="S48" s="113"/>
+      <c r="T48" s="113"/>
+      <c r="U48" s="113"/>
+      <c r="V48" s="113"/>
+      <c r="W48" s="113"/>
+      <c r="X48" s="113">
+        <v>0.02</v>
+      </c>
+      <c r="Y48" s="113">
+        <v>0.09</v>
+      </c>
+      <c r="Z48" s="113"/>
+      <c r="AA48" s="113"/>
+      <c r="AB48" s="113">
+        <v>0.89</v>
+      </c>
+      <c r="AC48" s="113"/>
+      <c r="AD48" s="91"/>
+      <c r="AE48" s="91"/>
+      <c r="AF48" s="91"/>
+      <c r="AG48" s="91"/>
+      <c r="AH48" s="91"/>
+    </row>
+    <row r="49" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A49" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" s="91" t="s">
+        <v>248</v>
+      </c>
+      <c r="C49" s="91" t="s">
+        <v>349</v>
+      </c>
+      <c r="D49" s="109" t="s">
+        <v>321</v>
+      </c>
+      <c r="E49" s="106">
+        <v>1</v>
+      </c>
+      <c r="F49" s="92">
+        <v>3</v>
+      </c>
+      <c r="G49" s="91"/>
+      <c r="H49" s="91"/>
+      <c r="I49" s="91"/>
+      <c r="J49" s="91"/>
+      <c r="K49" s="113"/>
+      <c r="L49" s="113"/>
+      <c r="M49" s="113"/>
+      <c r="N49" s="113"/>
+      <c r="O49" s="113"/>
+      <c r="P49" s="113"/>
+      <c r="Q49" s="113"/>
+      <c r="R49" s="113"/>
+      <c r="S49" s="113"/>
+      <c r="T49" s="113"/>
+      <c r="U49" s="113"/>
+      <c r="V49" s="113"/>
+      <c r="W49" s="113"/>
+      <c r="X49" s="113">
+        <v>0.02</v>
+      </c>
+      <c r="Y49" s="113">
+        <v>0.09</v>
+      </c>
+      <c r="Z49" s="113"/>
+      <c r="AA49" s="113"/>
+      <c r="AB49" s="113">
+        <v>0.89</v>
+      </c>
+      <c r="AC49" s="113"/>
+      <c r="AD49" s="91"/>
+      <c r="AE49" s="91"/>
+      <c r="AF49" s="91"/>
+      <c r="AG49" s="91"/>
+      <c r="AH49" s="91"/>
+    </row>
+    <row r="50" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A50" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50" s="91" t="s">
+        <v>249</v>
+      </c>
+      <c r="C50" s="91" t="s">
+        <v>350</v>
+      </c>
+      <c r="D50" s="109">
+        <v>7227</v>
+      </c>
+      <c r="E50" s="106">
+        <v>1</v>
+      </c>
+      <c r="F50" s="107">
+        <v>1</v>
+      </c>
+      <c r="G50" s="91"/>
+      <c r="H50" s="91"/>
+      <c r="I50" s="91"/>
+      <c r="J50" s="91"/>
+      <c r="K50" s="91"/>
+      <c r="L50" s="91"/>
+      <c r="M50" s="91"/>
+      <c r="N50" s="91">
+        <v>1</v>
+      </c>
+      <c r="O50" s="91"/>
+      <c r="P50" s="91"/>
+      <c r="Q50" s="91"/>
+      <c r="R50" s="91"/>
+      <c r="S50" s="91"/>
+      <c r="T50" s="91"/>
+      <c r="U50" s="91"/>
+      <c r="V50" s="91"/>
+      <c r="W50" s="91"/>
+      <c r="X50" s="91"/>
+      <c r="Y50" s="91"/>
+      <c r="Z50" s="91"/>
+      <c r="AA50" s="91"/>
+      <c r="AB50" s="91"/>
+      <c r="AC50" s="91"/>
+      <c r="AD50" s="91"/>
+      <c r="AE50" s="91"/>
+      <c r="AF50" s="91"/>
+      <c r="AG50" s="91"/>
+      <c r="AH50" s="91"/>
+    </row>
+    <row r="51" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A51" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" s="91" t="s">
+        <v>250</v>
+      </c>
+      <c r="C51" s="91" t="s">
+        <v>326</v>
+      </c>
+      <c r="D51" s="109" t="s">
+        <v>308</v>
+      </c>
+      <c r="E51" s="106">
+        <v>1</v>
+      </c>
+      <c r="F51" s="107">
+        <v>1</v>
+      </c>
+      <c r="G51" s="91"/>
+      <c r="H51" s="91"/>
+      <c r="I51" s="91">
+        <v>1</v>
+      </c>
+      <c r="J51" s="91"/>
+      <c r="K51" s="91"/>
+      <c r="L51" s="91"/>
+      <c r="M51" s="91"/>
+      <c r="N51" s="91"/>
+      <c r="O51" s="91"/>
+      <c r="P51" s="91"/>
+      <c r="Q51" s="91"/>
+      <c r="R51" s="91"/>
+      <c r="S51" s="91"/>
+      <c r="T51" s="91"/>
+      <c r="U51" s="91"/>
+      <c r="V51" s="91"/>
+      <c r="W51" s="91"/>
+      <c r="X51" s="91"/>
+      <c r="Y51" s="91"/>
+      <c r="Z51" s="91"/>
+      <c r="AA51" s="91"/>
+      <c r="AB51" s="91"/>
+      <c r="AC51" s="91"/>
+      <c r="AD51" s="91"/>
+      <c r="AE51" s="91"/>
+      <c r="AF51" s="91"/>
+      <c r="AG51" s="91"/>
+      <c r="AH51" s="91"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>